--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -51,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -61,14 +241,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C150"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -88,13 +308,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -102,10 +322,10 @@
         <v>1984</v>
       </c>
       <c r="B2" s="0">
-        <v>9.6866666666667545</v>
+        <v>9.6866666666665768</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6866666666667545</v>
+        <v>9.6866666666665768</v>
       </c>
     </row>
     <row r="3">
@@ -116,7 +336,7 @@
         <v>10.556666666666658</v>
       </c>
       <c r="C3" s="0">
-        <v>10.556666666666747</v>
+        <v>10.556666666666569</v>
       </c>
     </row>
     <row r="4">
@@ -127,7 +347,7 @@
         <v>11.38999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.390000000000079</v>
+        <v>11.389999999999878</v>
       </c>
     </row>
     <row r="5">
@@ -138,7 +358,7 @@
         <v>9.2666666666667119</v>
       </c>
       <c r="C5" s="0">
-        <v>9.2666666666668007</v>
+        <v>9.2666666666666231</v>
       </c>
     </row>
     <row r="6">
@@ -149,7 +369,7 @@
         <v>8.4766666666667092</v>
       </c>
       <c r="C6" s="0">
-        <v>8.476666666666798</v>
+        <v>8.4766666666667092</v>
       </c>
     </row>
     <row r="7">
@@ -160,7 +380,7 @@
         <v>7.9233333333333045</v>
       </c>
       <c r="C7" s="0">
-        <v>7.9233333333333933</v>
+        <v>7.9233333333333045</v>
       </c>
     </row>
     <row r="8">
@@ -171,7 +391,7 @@
         <v>7.9000000000000181</v>
       </c>
       <c r="C8" s="0">
-        <v>7.9000000000001069</v>
+        <v>7.9000000000000181</v>
       </c>
     </row>
     <row r="9">
@@ -182,7 +402,7 @@
         <v>8.1033333333333513</v>
       </c>
       <c r="C9" s="0">
-        <v>8.1033333333334401</v>
+        <v>8.1033333333333513</v>
       </c>
     </row>
     <row r="10">
@@ -193,7 +413,7 @@
         <v>7.8266666666666485</v>
       </c>
       <c r="C10" s="0">
-        <v>7.8266666666667373</v>
+        <v>7.8266666666665596</v>
       </c>
     </row>
     <row r="11">
@@ -204,7 +424,7 @@
         <v>6.9199999999999484</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9200000000000372</v>
+        <v>6.9199999999998596</v>
       </c>
     </row>
     <row r="12">
@@ -215,7 +435,7 @@
         <v>6.2066666666666936</v>
       </c>
       <c r="C12" s="0">
-        <v>6.2066666666667825</v>
+        <v>6.2066666666666048</v>
       </c>
     </row>
     <row r="13">
@@ -226,7 +446,7 @@
         <v>6.266666666666687</v>
       </c>
       <c r="C13" s="0">
-        <v>6.2666666666667759</v>
+        <v>6.266666666666687</v>
       </c>
     </row>
     <row r="14">
@@ -237,7 +457,7 @@
         <v>6.2200000000000033</v>
       </c>
       <c r="C14" s="0">
-        <v>6.2200000000000921</v>
+        <v>6.2200000000000033</v>
       </c>
     </row>
     <row r="15">
@@ -248,7 +468,7 @@
         <v>6.6499999999999782</v>
       </c>
       <c r="C15" s="0">
-        <v>6.650000000000067</v>
+        <v>6.6499999999999782</v>
       </c>
     </row>
     <row r="16">
@@ -259,7 +479,7 @@
         <v>6.843333333333379</v>
       </c>
       <c r="C16" s="0">
-        <v>6.8433333333334678</v>
+        <v>6.843333333333379</v>
       </c>
     </row>
     <row r="17">
@@ -270,7 +490,7 @@
         <v>6.9166666666666377</v>
       </c>
       <c r="C17" s="0">
-        <v>6.9166666666667265</v>
+        <v>6.9166666666666377</v>
       </c>
     </row>
     <row r="18">
@@ -281,7 +501,7 @@
         <v>6.6633333333333544</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6633333333334432</v>
+        <v>6.6633333333333544</v>
       </c>
     </row>
     <row r="19">
@@ -292,7 +512,7 @@
         <v>7.1566666666666556</v>
       </c>
       <c r="C19" s="0">
-        <v>7.1566666666667667</v>
+        <v>7.1566666666666556</v>
       </c>
     </row>
     <row r="20">
@@ -314,7 +534,7 @@
         <v>8.470000000000022</v>
       </c>
       <c r="C21" s="0">
-        <v>8.470000000000022</v>
+        <v>8.4699999999999331</v>
       </c>
     </row>
     <row r="22">
@@ -325,7 +545,7 @@
         <v>9.4433333333333813</v>
       </c>
       <c r="C22" s="0">
-        <v>9.4433333333333813</v>
+        <v>9.4433333333332925</v>
       </c>
     </row>
     <row r="23">
@@ -336,7 +556,7 @@
         <v>9.7266666666666612</v>
       </c>
       <c r="C23" s="0">
-        <v>9.7266666666666612</v>
+        <v>9.7266666666665724</v>
       </c>
     </row>
     <row r="24">
@@ -347,7 +567,7 @@
         <v>9.0833333333332877</v>
       </c>
       <c r="C24" s="0">
-        <v>9.0833333333332877</v>
+        <v>9.0833333333331989</v>
       </c>
     </row>
     <row r="25">
@@ -358,7 +578,7 @@
         <v>8.6133333333333404</v>
       </c>
       <c r="C25" s="0">
-        <v>8.6133333333333404</v>
+        <v>8.6133333333332516</v>
       </c>
     </row>
     <row r="26">
@@ -369,7 +589,7 @@
         <v>8.2500000000000462</v>
       </c>
       <c r="C26" s="0">
-        <v>8.2500000000000462</v>
+        <v>8.2499999999999574</v>
       </c>
     </row>
     <row r="27">
@@ -413,7 +633,7 @@
         <v>6.4266666666667138</v>
       </c>
       <c r="C30" s="0">
-        <v>6.4266666666667138</v>
+        <v>6.426666666666625</v>
       </c>
     </row>
     <row r="31">
@@ -919,7 +1139,7 @@
         <v>1.7400000000000304</v>
       </c>
       <c r="C76" s="0">
-        <v>1.739982825893116</v>
+        <v>1.7400000000000304</v>
       </c>
     </row>
     <row r="77">
@@ -930,7 +1150,7 @@
         <v>1.4433333333333298</v>
       </c>
       <c r="C77" s="0">
-        <v>1.4433315379358103</v>
+        <v>1.4433333333333298</v>
       </c>
     </row>
     <row r="78">
@@ -941,7 +1161,7 @@
         <v>1.2499999999999956</v>
       </c>
       <c r="C78" s="0">
-        <v>1.25003023433925</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="79">
@@ -952,7 +1172,7 @@
         <v>1.246666666666707</v>
       </c>
       <c r="C79" s="0">
-        <v>1.2467387340013181</v>
+        <v>1.246666666666707</v>
       </c>
     </row>
     <row r="80">
@@ -963,7 +1183,7 @@
         <v>1.0166666666666879</v>
       </c>
       <c r="C80" s="0">
-        <v>1.0167849788565775</v>
+        <v>1.0166666666666879</v>
       </c>
     </row>
     <row r="81">
@@ -974,7 +1194,7 @@
         <v>0.99666666666664572</v>
       </c>
       <c r="C81" s="0">
-        <v>0.99683172923572538</v>
+        <v>0.99638312099048498</v>
       </c>
     </row>
     <row r="82">
@@ -985,7 +1205,7 @@
         <v>1.0033333333333116</v>
       </c>
       <c r="C82" s="0">
-        <v>1.0035422769654412</v>
+        <v>1.0029047998475038</v>
       </c>
     </row>
     <row r="83">
@@ -996,7 +1216,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0102474462577282</v>
+        <v>1.0095083296175922</v>
       </c>
     </row>
     <row r="84">
@@ -1007,7 +1227,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4336129935576203</v>
+        <v>1.4328298615421842</v>
       </c>
     </row>
     <row r="85">
@@ -1018,7 +1238,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9503038988276877</v>
+        <v>1.949519841192604</v>
       </c>
     </row>
     <row r="86">
@@ -1029,7 +1249,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4703192092139448</v>
+        <v>2.4695666422738238</v>
       </c>
     </row>
     <row r="87">
@@ -1040,7 +1260,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9436584032227264</v>
+        <v>2.9429614988056185</v>
       </c>
     </row>
     <row r="88">
@@ -1051,7 +1271,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4603215999805759</v>
+        <v>3.4596973846305001</v>
       </c>
     </row>
     <row r="89">
@@ -1062,7 +1282,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.980308852765635</v>
+        <v>3.9797693220471109</v>
       </c>
     </row>
     <row r="90">
@@ -1073,7 +1293,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4569537310657159</v>
+        <v>4.4565068918595463</v>
       </c>
     </row>
     <row r="91">
@@ -1084,7 +1304,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9069234355365143</v>
+        <v>4.9065739074908077</v>
       </c>
     </row>
     <row r="92">
@@ -1095,7 +1315,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2468851089322088</v>
+        <v>5.2466350660383743</v>
       </c>
     </row>
     <row r="93">
@@ -1106,7 +1326,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2468392337918779</v>
+        <v>5.2466889058359056</v>
       </c>
     </row>
     <row r="94">
@@ -1117,7 +1337,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2567872035203189</v>
+        <v>5.2567344970156249</v>
       </c>
     </row>
     <row r="95">
@@ -1128,7 +1348,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2500631002248221</v>
+        <v>5.2501048540359641</v>
       </c>
     </row>
     <row r="96">
@@ -1139,7 +1359,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0733343788116558</v>
+        <v>5.073466484556155</v>
       </c>
     </row>
     <row r="97">
@@ -1150,7 +1370,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4966021364661657</v>
+        <v>4.4968192910172844</v>
       </c>
     </row>
     <row r="98">
@@ -1161,7 +1381,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1765346965513697</v>
+        <v>3.1768298489961877</v>
       </c>
     </row>
     <row r="99">
@@ -1172,7 +1392,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0864658243070711</v>
+        <v>2.0868331992731415</v>
       </c>
     </row>
     <row r="100">
@@ -1183,7 +1403,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9397277569163318</v>
+        <v>1.9401643070454666</v>
       </c>
     </row>
     <row r="101">
@@ -1194,7 +1414,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50664727500135953</v>
+        <v>0.50777465922533516</v>
       </c>
     </row>
     <row r="102">
@@ -1205,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.2672168426830943</v>
+        <v>1.6488952284639868</v>
       </c>
     </row>
     <row r="103">
@@ -1216,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.35974063543589008</v>
+        <v>0.62422887211277533</v>
       </c>
     </row>
     <row r="104">
@@ -1227,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.25618758611023473</v>
+        <v>-0.11067726072560014</v>
       </c>
     </row>
     <row r="105">
@@ -1238,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.27518257468277518</v>
+        <v>-0.16189799346500999</v>
       </c>
     </row>
     <row r="106">
@@ -1249,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.14322134107797035</v>
+        <v>-0.12751431539200775</v>
       </c>
     </row>
     <row r="107">
@@ -1260,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-0.96390615330738116</v>
+        <v>-1.1848463498480011</v>
       </c>
     </row>
     <row r="108">
@@ -1271,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.0885926994627759</v>
+        <v>-1.0859586593229498</v>
       </c>
     </row>
     <row r="109">
@@ -1282,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-1.5031596898349875</v>
+        <v>-1.5402196670599944</v>
       </c>
     </row>
     <row r="110">
@@ -1293,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.5144960632580862</v>
+        <v>-1.3623043248304323</v>
       </c>
     </row>
     <row r="111">
@@ -1304,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.0962839897474486</v>
+        <v>-1.0891450601857144</v>
       </c>
     </row>
     <row r="112">
@@ -1315,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-1.722725403314207</v>
+        <v>-1.8674739911055394</v>
       </c>
     </row>
     <row r="113">
@@ -1326,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-1.1252827949940314</v>
+        <v>-1.2162518929261901</v>
       </c>
     </row>
     <row r="114">
@@ -1337,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-2.0106295454326073</v>
+        <v>-2.009660476457209</v>
       </c>
     </row>
     <row r="115">
@@ -1348,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-1.850651502057421</v>
+        <v>-1.6607243994285259</v>
       </c>
     </row>
     <row r="116">
@@ -1359,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-1.4770730817615485</v>
+        <v>-1.2895588468961661</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-2.6820440919218647</v>
+        <v>-2.4213785264856846</v>
       </c>
     </row>
     <row r="118">
@@ -1381,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-1.4549628214281962</v>
+        <v>-1.1357874445460658</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-0.85972867189337832</v>
+        <v>-0.63276879257986307</v>
       </c>
     </row>
     <row r="120">
@@ -1403,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-0.55580511273184419</v>
+        <v>-0.45619773641784045</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-0.63122979831121695</v>
+        <v>-0.54336708914966003</v>
       </c>
     </row>
     <row r="122">
@@ -1425,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-0.86572208981484655</v>
+        <v>-0.74278953819548743</v>
       </c>
     </row>
     <row r="123">
@@ -1436,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-0.7961773641566805</v>
+        <v>-0.72762278155045212</v>
       </c>
     </row>
     <row r="124">
@@ -1447,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.5631450152898454</v>
+        <v>-0.4624926551333397</v>
       </c>
     </row>
     <row r="125">
@@ -1458,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.32280313536572347</v>
+        <v>-0.21961124805635057</v>
       </c>
     </row>
     <row r="126">
@@ -1469,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>-0.083958571131270698</v>
+        <v>0.16225716019162562</v>
       </c>
     </row>
     <row r="127">
@@ -1480,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.010653991576758948</v>
+        <v>0.032963145757958223</v>
       </c>
     </row>
     <row r="128">
@@ -1491,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>-0.00048591886001592144</v>
+        <v>0.05031697791864076</v>
       </c>
     </row>
     <row r="129">
@@ -1681,6 +1901,61 @@
         <v>1.6433333333332856</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>2020</v>
+      </c>
+      <c r="B146" s="0">
+        <v>1.2599999999999723</v>
+      </c>
+      <c r="C146" s="0">
+        <v>1.2599999999999723</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>2020.25</v>
+      </c>
+      <c r="B147" s="0">
+        <v>0</v>
+      </c>
+      <c r="C147" s="0">
+        <v>7.6631433313967046</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>2020.5</v>
+      </c>
+      <c r="B148" s="0">
+        <v>0</v>
+      </c>
+      <c r="C148" s="0">
+        <v>-4.7850751537857779</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>2020.75</v>
+      </c>
+      <c r="B149" s="0">
+        <v>0</v>
+      </c>
+      <c r="C149" s="0">
+        <v>-3.048671875166753</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>2021</v>
+      </c>
+      <c r="B150" s="0">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0">
+        <v>-3.4569946319478295</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -231,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -261,11 +279,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -289,6 +309,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,13 +330,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -249,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -281,11 +290,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -311,6 +321,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +341,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -258,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -291,11 +300,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -322,6 +332,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,13 +352,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -267,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -301,11 +319,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -333,6 +353,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,13 +374,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -285,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -321,11 +330,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -355,6 +365,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,13 +385,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -294,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -331,11 +484,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -366,6 +536,23 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -385,13 +572,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -399,10 +586,10 @@
         <v>1984</v>
       </c>
       <c r="B2" s="0">
-        <v>9.6866666666665768</v>
+        <v>9.6866666666666656</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6866666666665768</v>
+        <v>9.6866666666666656</v>
       </c>
     </row>
     <row r="3">
@@ -413,7 +600,7 @@
         <v>10.556666666666658</v>
       </c>
       <c r="C3" s="0">
-        <v>10.556666666666569</v>
+        <v>10.556666666666658</v>
       </c>
     </row>
     <row r="4">
@@ -424,7 +611,7 @@
         <v>11.38999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.389999999999878</v>
+        <v>11.38999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -435,7 +622,7 @@
         <v>9.2666666666667119</v>
       </c>
       <c r="C5" s="0">
-        <v>9.2666666666666231</v>
+        <v>9.2666666666667119</v>
       </c>
     </row>
     <row r="6">
@@ -457,7 +644,7 @@
         <v>7.9233333333333045</v>
       </c>
       <c r="C7" s="0">
-        <v>7.9233333333333045</v>
+        <v>7.9233333333333933</v>
       </c>
     </row>
     <row r="8">
@@ -468,7 +655,7 @@
         <v>7.9000000000000181</v>
       </c>
       <c r="C8" s="0">
-        <v>7.9000000000000181</v>
+        <v>7.9000000000001069</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +666,7 @@
         <v>8.1033333333333513</v>
       </c>
       <c r="C9" s="0">
-        <v>8.1033333333333513</v>
+        <v>8.1033333333334401</v>
       </c>
     </row>
     <row r="10">
@@ -490,7 +677,7 @@
         <v>7.8266666666666485</v>
       </c>
       <c r="C10" s="0">
-        <v>7.8266666666665596</v>
+        <v>7.8266666666667373</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +688,7 @@
         <v>6.9199999999999484</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9199999999998596</v>
+        <v>6.9200000000000372</v>
       </c>
     </row>
     <row r="12">
@@ -512,7 +699,7 @@
         <v>6.2066666666666936</v>
       </c>
       <c r="C12" s="0">
-        <v>6.2066666666666048</v>
+        <v>6.2066666666667825</v>
       </c>
     </row>
     <row r="13">
@@ -523,7 +710,7 @@
         <v>6.266666666666687</v>
       </c>
       <c r="C13" s="0">
-        <v>6.266666666666687</v>
+        <v>6.2666666666667759</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +721,7 @@
         <v>6.2200000000000033</v>
       </c>
       <c r="C14" s="0">
-        <v>6.2200000000000033</v>
+        <v>6.2200000000000921</v>
       </c>
     </row>
     <row r="15">
@@ -545,7 +732,7 @@
         <v>6.6499999999999782</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6499999999999782</v>
+        <v>6.650000000000067</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +743,7 @@
         <v>6.843333333333379</v>
       </c>
       <c r="C16" s="0">
-        <v>6.843333333333379</v>
+        <v>6.8433333333334678</v>
       </c>
     </row>
     <row r="17">
@@ -567,7 +754,7 @@
         <v>6.9166666666666377</v>
       </c>
       <c r="C17" s="0">
-        <v>6.9166666666666377</v>
+        <v>6.9166666666667265</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +765,7 @@
         <v>6.6633333333333544</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6633333333333544</v>
+        <v>6.6633333333334432</v>
       </c>
     </row>
     <row r="19">
@@ -589,7 +776,7 @@
         <v>7.1566666666666556</v>
       </c>
       <c r="C19" s="0">
-        <v>7.1566666666666556</v>
+        <v>7.1566666666667667</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +787,7 @@
         <v>7.9833333333333423</v>
       </c>
       <c r="C20" s="0">
-        <v>7.9833333333333423</v>
+        <v>7.9833333333334533</v>
       </c>
     </row>
     <row r="21">
@@ -611,7 +798,7 @@
         <v>8.470000000000022</v>
       </c>
       <c r="C21" s="0">
-        <v>8.4699999999999331</v>
+        <v>8.4700000000001108</v>
       </c>
     </row>
     <row r="22">
@@ -622,7 +809,7 @@
         <v>9.4433333333333813</v>
       </c>
       <c r="C22" s="0">
-        <v>9.4433333333332925</v>
+        <v>9.4433333333334701</v>
       </c>
     </row>
     <row r="23">
@@ -633,7 +820,7 @@
         <v>9.7266666666666612</v>
       </c>
       <c r="C23" s="0">
-        <v>9.7266666666665724</v>
+        <v>9.7266666666667501</v>
       </c>
     </row>
     <row r="24">
@@ -644,7 +831,7 @@
         <v>9.0833333333332877</v>
       </c>
       <c r="C24" s="0">
-        <v>9.0833333333331989</v>
+        <v>9.0833333333333766</v>
       </c>
     </row>
     <row r="25">
@@ -655,7 +842,7 @@
         <v>8.6133333333333404</v>
       </c>
       <c r="C25" s="0">
-        <v>8.6133333333332516</v>
+        <v>8.6133333333334292</v>
       </c>
     </row>
     <row r="26">
@@ -666,7 +853,7 @@
         <v>8.2500000000000462</v>
       </c>
       <c r="C26" s="0">
-        <v>8.2499999999999574</v>
+        <v>8.250000000000135</v>
       </c>
     </row>
     <row r="27">
@@ -677,7 +864,7 @@
         <v>8.2433333333333358</v>
       </c>
       <c r="C27" s="0">
-        <v>8.2433333333333358</v>
+        <v>8.243333333333446</v>
       </c>
     </row>
     <row r="28">
@@ -688,7 +875,7 @@
         <v>8.1600000000000339</v>
       </c>
       <c r="C28" s="0">
-        <v>8.1600000000000339</v>
+        <v>8.1600000000001227</v>
       </c>
     </row>
     <row r="29">
@@ -699,7 +886,7 @@
         <v>7.7433333333333465</v>
       </c>
       <c r="C29" s="0">
-        <v>7.7433333333333465</v>
+        <v>7.7433333333334353</v>
       </c>
     </row>
     <row r="30">
@@ -710,7 +897,7 @@
         <v>6.4266666666667138</v>
       </c>
       <c r="C30" s="0">
-        <v>6.426666666666625</v>
+        <v>6.4266666666668026</v>
       </c>
     </row>
     <row r="31">
@@ -721,7 +908,7 @@
         <v>5.8633333333333093</v>
       </c>
       <c r="C31" s="0">
-        <v>5.8633333333333093</v>
+        <v>5.8633333333333981</v>
       </c>
     </row>
     <row r="32">
@@ -732,7 +919,7 @@
         <v>5.6433333333333113</v>
       </c>
       <c r="C32" s="0">
-        <v>5.6433333333333113</v>
+        <v>5.6433333333334001</v>
       </c>
     </row>
     <row r="33">
@@ -743,7 +930,7 @@
         <v>4.8166666666666691</v>
       </c>
       <c r="C33" s="0">
-        <v>4.8166666666666691</v>
+        <v>4.8166666666667579</v>
       </c>
     </row>
     <row r="34">
@@ -754,7 +941,7 @@
         <v>4.0233333333333565</v>
       </c>
       <c r="C34" s="0">
-        <v>4.0233333333333565</v>
+        <v>4.0233333333334453</v>
       </c>
     </row>
     <row r="35">
@@ -765,7 +952,7 @@
         <v>3.7700000000000289</v>
       </c>
       <c r="C35" s="0">
-        <v>3.7700000000000289</v>
+        <v>3.7700000000001177</v>
       </c>
     </row>
     <row r="36">
@@ -776,7 +963,7 @@
         <v>3.2566666666666855</v>
       </c>
       <c r="C36" s="0">
-        <v>3.2566666666666855</v>
+        <v>3.2566666666667965</v>
       </c>
     </row>
     <row r="37">
@@ -787,7 +974,7 @@
         <v>3.0366666666666653</v>
       </c>
       <c r="C37" s="0">
-        <v>3.0366666666666653</v>
+        <v>3.0366666666667541</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +985,7 @@
         <v>3.0399999999999983</v>
       </c>
       <c r="C38" s="0">
-        <v>3.0399999999999983</v>
+        <v>3.0400000000000871</v>
       </c>
     </row>
     <row r="39">
@@ -853,7 +1040,7 @@
         <v>3.9400000000000324</v>
       </c>
       <c r="C43" s="0">
-        <v>3.9400000000000324</v>
+        <v>3.9400000000001212</v>
       </c>
     </row>
     <row r="44">
@@ -897,7 +1084,7 @@
         <v>6.0200000000000031</v>
       </c>
       <c r="C47" s="0">
-        <v>6.0200000000000031</v>
+        <v>6.0200000000000919</v>
       </c>
     </row>
     <row r="48">
@@ -919,7 +1106,7 @@
         <v>5.720000000000014</v>
       </c>
       <c r="C49" s="0">
-        <v>5.720000000000014</v>
+        <v>5.7200000000001028</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +1183,7 @@
         <v>5.5333333333333234</v>
       </c>
       <c r="C56" s="0">
-        <v>5.5333333333333234</v>
+        <v>5.5333333333334123</v>
       </c>
     </row>
     <row r="57">
@@ -1271,7 +1458,7 @@
         <v>0.99666666666664572</v>
       </c>
       <c r="C81" s="0">
-        <v>0.99638312099048498</v>
+        <v>0.9963915207263474</v>
       </c>
     </row>
     <row r="82">
@@ -1282,7 +1469,7 @@
         <v>1.0033333333333116</v>
       </c>
       <c r="C82" s="0">
-        <v>1.0029047998475038</v>
+        <v>1.0029171386297664</v>
       </c>
     </row>
     <row r="83">
@@ -1293,7 +1480,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095083296175922</v>
+        <v>1.0095223043066204</v>
       </c>
     </row>
     <row r="84">
@@ -1304,7 +1491,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4328298615421842</v>
+        <v>1.4328440990858837</v>
       </c>
     </row>
     <row r="85">
@@ -1315,7 +1502,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.949519841192604</v>
+        <v>1.9495334161461209</v>
       </c>
     </row>
     <row r="86">
@@ -1326,7 +1513,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4695666422738238</v>
+        <v>2.4695789344845842</v>
       </c>
     </row>
     <row r="87">
@@ -1337,7 +1524,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9429614988056185</v>
+        <v>2.9429721106922324</v>
       </c>
     </row>
     <row r="88">
@@ -1348,7 +1535,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4596973846305001</v>
+        <v>3.459706093287318</v>
       </c>
     </row>
     <row r="89">
@@ -1359,7 +1546,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.9797693220471109</v>
+        <v>3.9797760238860835</v>
       </c>
     </row>
     <row r="90">
@@ -1370,7 +1557,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4565068918595463</v>
+        <v>4.4565115712214887</v>
       </c>
     </row>
     <row r="91">
@@ -1381,7 +1568,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9065739074908077</v>
+        <v>4.9065766149136492</v>
       </c>
     </row>
     <row r="92">
@@ -1392,7 +1579,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2466350660383743</v>
+        <v>5.2466358969100124</v>
       </c>
     </row>
     <row r="93">
@@ -1403,7 +1590,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2466889058359056</v>
+        <v>5.2466879902888897</v>
       </c>
     </row>
     <row r="94">
@@ -1414,7 +1601,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2567344970156249</v>
+        <v>5.2567319878412899</v>
       </c>
     </row>
     <row r="95">
@@ -1425,7 +1612,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2501048540359641</v>
+        <v>5.2501009120170972</v>
       </c>
     </row>
     <row r="96">
@@ -1436,7 +1623,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.073466484556155</v>
+        <v>5.0734612778135624</v>
       </c>
     </row>
     <row r="97">
@@ -1447,7 +1634,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4968192910172844</v>
+        <v>4.4968129986319605</v>
       </c>
     </row>
     <row r="98">
@@ -1458,7 +1645,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1768298489961877</v>
+        <v>3.1768226690157331</v>
       </c>
     </row>
     <row r="99">
@@ -1469,7 +1656,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0868331992731415</v>
+        <v>2.0868252758880823</v>
       </c>
     </row>
     <row r="100">
@@ -1480,7 +1667,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401643070454666</v>
+        <v>1.9401557219421051</v>
       </c>
     </row>
     <row r="101">
@@ -1491,7 +1678,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50777465922533516</v>
+        <v>0.50775193785634887</v>
       </c>
     </row>
     <row r="102">
@@ -1502,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.6488952284639868</v>
+        <v>1.6975116104384069</v>
       </c>
     </row>
     <row r="103">
@@ -1513,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.62422887211277533</v>
+        <v>0.67964963396671685</v>
       </c>
     </row>
     <row r="104">
@@ -1524,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.11067726072560014</v>
+        <v>-0.10241757465069279</v>
       </c>
     </row>
     <row r="105">
@@ -1535,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.16189799346500999</v>
+        <v>-0.1745308066623652</v>
       </c>
     </row>
     <row r="106">
@@ -1546,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.12751431539200775</v>
+        <v>-0.16850227418053754</v>
       </c>
     </row>
     <row r="107">
@@ -1557,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-1.1848463498480011</v>
+        <v>-1.2577057835605143</v>
       </c>
     </row>
     <row r="108">
@@ -1568,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.0859586593229498</v>
+        <v>-1.1337212152887521</v>
       </c>
     </row>
     <row r="109">
@@ -1579,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-1.5402196670599944</v>
+        <v>-1.5800407870430688</v>
       </c>
     </row>
     <row r="110">
@@ -1590,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.3623043248304323</v>
+        <v>-1.3608393103700323</v>
       </c>
     </row>
     <row r="111">
@@ -1601,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.0891450601857144</v>
+        <v>-1.0737038927331355</v>
       </c>
     </row>
     <row r="112">
@@ -1612,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-1.8674739911055394</v>
+        <v>-1.8431744468209721</v>
       </c>
     </row>
     <row r="113">
@@ -1623,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-1.2162518929261901</v>
+        <v>-1.223111938587762</v>
       </c>
     </row>
     <row r="114">
@@ -1634,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-2.009660476457209</v>
+        <v>-1.9888784185039032</v>
       </c>
     </row>
     <row r="115">
@@ -1645,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-1.6607243994285259</v>
+        <v>-1.702175400407191</v>
       </c>
     </row>
     <row r="116">
@@ -1656,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-1.2895588468961661</v>
+        <v>-1.3467568371485217</v>
       </c>
     </row>
     <row r="117">
@@ -1667,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-2.4213785264856846</v>
+        <v>-2.447145310551746</v>
       </c>
     </row>
     <row r="118">
@@ -1678,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-1.1357874445460658</v>
+        <v>-1.1834911429906003</v>
       </c>
     </row>
     <row r="119">
@@ -1689,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-0.63276879257986307</v>
+        <v>-0.69560187802735207</v>
       </c>
     </row>
     <row r="120">
@@ -1700,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-0.45619773641784045</v>
+        <v>-0.47310380001696073</v>
       </c>
     </row>
     <row r="121">
@@ -1711,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-0.54336708914966003</v>
+        <v>-0.56019914395267767</v>
       </c>
     </row>
     <row r="122">
@@ -1722,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-0.74278953819548743</v>
+        <v>-0.77095224163514775</v>
       </c>
     </row>
     <row r="123">
@@ -1733,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-0.72762278155045212</v>
+        <v>-0.71018212769901057</v>
       </c>
     </row>
     <row r="124">
@@ -1744,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.4624926551333397</v>
+        <v>-0.45646496664363267</v>
       </c>
     </row>
     <row r="125">
@@ -1755,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.21961124805635057</v>
+        <v>-0.21272213887576497</v>
       </c>
     </row>
     <row r="126">
@@ -1766,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.16225716019162562</v>
+        <v>0.17616224082710463</v>
       </c>
     </row>
     <row r="127">
@@ -1777,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.032963145757958223</v>
+        <v>0.036083754907800802</v>
       </c>
     </row>
     <row r="128">
@@ -1788,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.05031697791864076</v>
+        <v>0.053799398148735023</v>
       </c>
     </row>
     <row r="129">
@@ -1997,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.6631433313967046</v>
+        <v>7.8096896392297888</v>
       </c>
     </row>
     <row r="148">
@@ -2008,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-4.7850751537857779</v>
+        <v>-4.7324215093060396</v>
       </c>
     </row>
     <row r="149">
@@ -2019,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-3.048671875166753</v>
+        <v>-3.1385738473021951</v>
       </c>
     </row>
     <row r="150">
@@ -2030,7 +2217,18 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.4569946319478295</v>
+        <v>-3.0358164520225661</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>2021.25</v>
+      </c>
+      <c r="B151" s="0">
+        <v>0</v>
+      </c>
+      <c r="C151" s="0">
+        <v>-2.7126338022849694</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -447,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -501,11 +519,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -553,6 +573,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,13 +594,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -644,7 +666,7 @@
         <v>7.9233333333333045</v>
       </c>
       <c r="C7" s="0">
-        <v>7.9233333333333933</v>
+        <v>7.9233333333333045</v>
       </c>
     </row>
     <row r="8">
@@ -732,7 +754,7 @@
         <v>6.6499999999999782</v>
       </c>
       <c r="C15" s="0">
-        <v>6.650000000000067</v>
+        <v>6.6499999999999782</v>
       </c>
     </row>
     <row r="16">
@@ -1040,7 +1062,7 @@
         <v>3.9400000000000324</v>
       </c>
       <c r="C43" s="0">
-        <v>3.9400000000001212</v>
+        <v>3.9400000000000324</v>
       </c>
     </row>
     <row r="44">
@@ -1084,7 +1106,7 @@
         <v>6.0200000000000031</v>
       </c>
       <c r="C47" s="0">
-        <v>6.0200000000000919</v>
+        <v>6.0200000000000031</v>
       </c>
     </row>
     <row r="48">
@@ -1106,7 +1128,7 @@
         <v>5.720000000000014</v>
       </c>
       <c r="C49" s="0">
-        <v>5.7200000000001028</v>
+        <v>5.720000000000014</v>
       </c>
     </row>
     <row r="50">
@@ -1183,7 +1205,7 @@
         <v>5.5333333333333234</v>
       </c>
       <c r="C56" s="0">
-        <v>5.5333333333334123</v>
+        <v>5.5333333333333234</v>
       </c>
     </row>
     <row r="57">
@@ -1458,7 +1480,7 @@
         <v>0.99666666666664572</v>
       </c>
       <c r="C81" s="0">
-        <v>0.9963915207263474</v>
+        <v>0.99639152297177347</v>
       </c>
     </row>
     <row r="82">
@@ -1469,7 +1491,7 @@
         <v>1.0033333333333116</v>
       </c>
       <c r="C82" s="0">
-        <v>1.0029171386297664</v>
+        <v>1.0029171430754769</v>
       </c>
     </row>
     <row r="83">
@@ -1480,7 +1502,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095223043066204</v>
+        <v>1.0095223111692198</v>
       </c>
     </row>
     <row r="84">
@@ -1491,7 +1513,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4328440990858837</v>
+        <v>1.4328441085106336</v>
       </c>
     </row>
     <row r="85">
@@ -1502,7 +1524,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9495334161461209</v>
+        <v>1.9495334281459886</v>
       </c>
     </row>
     <row r="86">
@@ -1513,7 +1535,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4695789344845842</v>
+        <v>2.4695789489647124</v>
       </c>
     </row>
     <row r="87">
@@ -1524,7 +1546,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9429721106922324</v>
+        <v>2.9429721274750742</v>
       </c>
     </row>
     <row r="88">
@@ -1535,7 +1557,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.459706093287318</v>
+        <v>3.4597061121513617</v>
       </c>
     </row>
     <row r="89">
@@ -1546,7 +1568,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.9797760238860835</v>
+        <v>3.9797760445698493</v>
       </c>
     </row>
     <row r="90">
@@ -1557,7 +1579,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4565115712214887</v>
+        <v>4.4565115934349198</v>
       </c>
     </row>
     <row r="91">
@@ -1568,7 +1590,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9065766149136492</v>
+        <v>4.9065766383589615</v>
       </c>
     </row>
     <row r="92">
@@ -1579,7 +1601,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2466358969100124</v>
+        <v>5.2466359212739455</v>
       </c>
     </row>
     <row r="93">
@@ -1590,7 +1612,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2466879902888897</v>
+        <v>5.2466880152224338</v>
       </c>
     </row>
     <row r="94">
@@ -1601,7 +1623,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2567319878412899</v>
+        <v>5.2567320130686657</v>
       </c>
     </row>
     <row r="95">
@@ -1612,7 +1634,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2501009120170972</v>
+        <v>5.250100937275004</v>
       </c>
     </row>
     <row r="96">
@@ -1623,7 +1645,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0734612778135624</v>
+        <v>5.0734613028316389</v>
       </c>
     </row>
     <row r="97">
@@ -1634,7 +1656,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4968129986319605</v>
+        <v>4.4968130231218595</v>
       </c>
     </row>
     <row r="98">
@@ -1645,7 +1667,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1768226690157331</v>
+        <v>3.1768226926579768</v>
       </c>
     </row>
     <row r="99">
@@ -1656,7 +1678,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0868252758880823</v>
+        <v>2.0868252985610347</v>
       </c>
     </row>
     <row r="100">
@@ -1667,7 +1689,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401557219421051</v>
+        <v>1.9401557436595551</v>
       </c>
     </row>
     <row r="101">
@@ -1678,7 +1700,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50775193785634887</v>
+        <v>0.50775210888991396</v>
       </c>
     </row>
     <row r="102">
@@ -1689,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.6975116104384069</v>
+        <v>1.6974430576228938</v>
       </c>
     </row>
     <row r="103">
@@ -1700,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.67964963396671685</v>
+        <v>0.67955658277674136</v>
       </c>
     </row>
     <row r="104">
@@ -1711,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.10241757465069279</v>
+        <v>-0.1025031785308772</v>
       </c>
     </row>
     <row r="105">
@@ -1722,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.1745308066623652</v>
+        <v>-0.17461891321880474</v>
       </c>
     </row>
     <row r="106">
@@ -1733,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.16850227418053754</v>
+        <v>-0.16856576697290571</v>
       </c>
     </row>
     <row r="107">
@@ -1744,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-1.2577057835605143</v>
+        <v>-1.2578314091647336</v>
       </c>
     </row>
     <row r="108">
@@ -1755,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.1337212152887521</v>
+        <v>-1.1338683789431148</v>
       </c>
     </row>
     <row r="109">
@@ -1766,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-1.5800407870430688</v>
+        <v>-1.5802167751983398</v>
       </c>
     </row>
     <row r="110">
@@ -1777,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.3608393103700323</v>
+        <v>-1.3609660942600632</v>
       </c>
     </row>
     <row r="111">
@@ -1788,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.0737038927331355</v>
+        <v>-1.0737987828426943</v>
       </c>
     </row>
     <row r="112">
@@ -1799,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-1.8431744468209721</v>
+        <v>-1.8433677785937852</v>
       </c>
     </row>
     <row r="113">
@@ -1810,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-1.223111938587762</v>
+        <v>-1.2233353461517438</v>
       </c>
     </row>
     <row r="114">
@@ -1821,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-1.9888784185039032</v>
+        <v>-1.9891169894957983</v>
       </c>
     </row>
     <row r="115">
@@ -1832,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-1.702175400407191</v>
+        <v>-1.7024295050523053</v>
       </c>
     </row>
     <row r="116">
@@ -1843,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-1.3467568371485217</v>
+        <v>-1.3470044557015393</v>
       </c>
     </row>
     <row r="117">
@@ -1854,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-2.447145310551746</v>
+        <v>-2.4474135102738881</v>
       </c>
     </row>
     <row r="118">
@@ -1865,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-1.1834911429906003</v>
+        <v>-1.1837154949261852</v>
       </c>
     </row>
     <row r="119">
@@ -1876,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-0.69560187802735207</v>
+        <v>-0.6957782208460328</v>
       </c>
     </row>
     <row r="120">
@@ -1887,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-0.47310380001696073</v>
+        <v>-0.47323326259193221</v>
       </c>
     </row>
     <row r="121">
@@ -1898,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-0.56019914395267767</v>
+        <v>-0.56032774031937738</v>
       </c>
     </row>
     <row r="122">
@@ -1909,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-0.77095224163514775</v>
+        <v>-0.77106139409668373</v>
       </c>
     </row>
     <row r="123">
@@ -1920,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-0.71018212769901057</v>
+        <v>-0.71028799684746957</v>
       </c>
     </row>
     <row r="124">
@@ -1931,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.45646496664363267</v>
+        <v>-0.45654339114695741</v>
       </c>
     </row>
     <row r="125">
@@ -1942,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.21272213887576497</v>
+        <v>-0.21274861267670531</v>
       </c>
     </row>
     <row r="126">
@@ -1953,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.17616224082710463</v>
+        <v>0.17616294566096258</v>
       </c>
     </row>
     <row r="127">
@@ -1964,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.036083754907800802</v>
+        <v>0.036090986012182746</v>
       </c>
     </row>
     <row r="128">
@@ -1975,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.053799398148735023</v>
+        <v>0.053807926476601153</v>
       </c>
     </row>
     <row r="129">
@@ -2184,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.8096896392297888</v>
+        <v>7.8096444310521873</v>
       </c>
     </row>
     <row r="148">
@@ -2195,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-4.7324215093060396</v>
+        <v>-4.7327691097067586</v>
       </c>
     </row>
     <row r="149">
@@ -2206,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-3.1385738473021951</v>
+        <v>-3.1389503257894913</v>
       </c>
     </row>
     <row r="150">
@@ -2217,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.0358164520225661</v>
+        <v>-3.0361065527400477</v>
       </c>
     </row>
     <row r="151">
@@ -2228,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-2.7126338022849694</v>
+        <v>-2.7684352398624656</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -465,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -521,11 +530,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -575,6 +585,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,13 +605,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -474,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -531,11 +549,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -586,6 +606,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -605,13 +627,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -1491,7 +1513,7 @@
         <v>0.99666666666664572</v>
       </c>
       <c r="C81" s="0">
-        <v>0.99639152297177347</v>
+        <v>0.99639182326900499</v>
       </c>
     </row>
     <row r="82">
@@ -1502,7 +1524,7 @@
         <v>1.0033333333333116</v>
       </c>
       <c r="C82" s="0">
-        <v>1.0029171430754769</v>
+        <v>1.0029176028518938</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1535,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095223111692198</v>
+        <v>1.0095228599094508</v>
       </c>
     </row>
     <row r="84">
@@ -1524,7 +1546,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4328441085106336</v>
+        <v>1.4328447041452641</v>
       </c>
     </row>
     <row r="85">
@@ -1535,7 +1557,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9495334281459886</v>
+        <v>1.9495340410316864</v>
       </c>
     </row>
     <row r="86">
@@ -1546,7 +1568,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4695789489647124</v>
+        <v>2.4695795576779034</v>
       </c>
     </row>
     <row r="87">
@@ -1557,7 +1579,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9429721274750742</v>
+        <v>2.9429727164916653</v>
       </c>
     </row>
     <row r="88">
@@ -1568,7 +1590,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4597061121513617</v>
+        <v>3.4597066708629276</v>
       </c>
     </row>
     <row r="89">
@@ -1579,7 +1601,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.9797760445698493</v>
+        <v>3.9797765655578132</v>
       </c>
     </row>
     <row r="90">
@@ -1590,7 +1612,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4565115934349198</v>
+        <v>4.4565120716320239</v>
       </c>
     </row>
     <row r="91">
@@ -1601,7 +1623,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9065766383589615</v>
+        <v>4.9065770706629763</v>
       </c>
     </row>
     <row r="92">
@@ -1612,7 +1634,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2466359212739455</v>
+        <v>5.2466363057630083</v>
       </c>
     </row>
     <row r="93">
@@ -1623,7 +1645,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2466880152224338</v>
+        <v>5.2466883505500217</v>
       </c>
     </row>
     <row r="94">
@@ -1634,7 +1656,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2567320130686657</v>
+        <v>5.2567322996835308</v>
       </c>
     </row>
     <row r="95">
@@ -1645,7 +1667,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.250100937275004</v>
+        <v>5.2501011760757832</v>
       </c>
     </row>
     <row r="96">
@@ -1656,7 +1678,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0734613028316389</v>
+        <v>5.0734614948653389</v>
       </c>
     </row>
     <row r="97">
@@ -1667,7 +1689,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4968130231218595</v>
+        <v>4.4968131695784175</v>
       </c>
     </row>
     <row r="98">
@@ -1678,7 +1700,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1768226926579768</v>
+        <v>3.176822794968337</v>
       </c>
     </row>
     <row r="99">
@@ -1689,7 +1711,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0868252985610347</v>
+        <v>2.0868253592999597</v>
       </c>
     </row>
     <row r="100">
@@ -1700,7 +1722,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401557436595551</v>
+        <v>1.9401557652927393</v>
       </c>
     </row>
     <row r="101">
@@ -1711,7 +1733,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50775210888991396</v>
+        <v>0.50775031191936382</v>
       </c>
     </row>
     <row r="102">
@@ -1722,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.6974430576228938</v>
+        <v>1.6937772700994946</v>
       </c>
     </row>
     <row r="103">
@@ -1733,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.67955658277674136</v>
+        <v>0.67587175210195305</v>
       </c>
     </row>
     <row r="104">
@@ -1744,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.1025031785308772</v>
+        <v>-0.10559049935601195</v>
       </c>
     </row>
     <row r="105">
@@ -1755,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.17461891321880474</v>
+        <v>-0.17776334042235442</v>
       </c>
     </row>
     <row r="106">
@@ -1766,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.16856576697290571</v>
+        <v>-0.1710687472153638</v>
       </c>
     </row>
     <row r="107">
@@ -1777,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-1.2578314091647336</v>
+        <v>-1.2615725352793983</v>
       </c>
     </row>
     <row r="108">
@@ -1788,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.1338683789431148</v>
+        <v>-1.138310679947796</v>
       </c>
     </row>
     <row r="109">
@@ -1799,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-1.5802167751983398</v>
+        <v>-1.5852699405839221</v>
       </c>
     </row>
     <row r="110">
@@ -1810,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.3609660942600632</v>
+        <v>-1.3650766135385073</v>
       </c>
     </row>
     <row r="111">
@@ -1821,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.0737987828426943</v>
+        <v>-1.0773344011158592</v>
       </c>
     </row>
     <row r="112">
@@ -1832,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-1.8433677785937852</v>
+        <v>-1.8490520193814364</v>
       </c>
     </row>
     <row r="113">
@@ -1843,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-1.2233353461517438</v>
+        <v>-1.2301890236138813</v>
       </c>
     </row>
     <row r="114">
@@ -1854,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-1.9891169894957983</v>
+        <v>-1.9960226293425531</v>
       </c>
     </row>
     <row r="115">
@@ -1865,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-1.7024295050523053</v>
+        <v>-1.7099618130806626</v>
       </c>
     </row>
     <row r="116">
@@ -1876,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-1.3470044557015393</v>
+        <v>-1.3547201128070174</v>
       </c>
     </row>
     <row r="117">
@@ -1887,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-2.4474135102738881</v>
+        <v>-2.455059325937381</v>
       </c>
     </row>
     <row r="118">
@@ -1898,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-1.1837154949261852</v>
+        <v>-1.1911912825350535</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-0.6957782208460328</v>
+        <v>-0.70237546625840919</v>
       </c>
     </row>
     <row r="120">
@@ -1920,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-0.47323326259193221</v>
+        <v>-0.47871997828423662</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-0.56032774031937738</v>
+        <v>-0.56565540430401073</v>
       </c>
     </row>
     <row r="122">
@@ -1942,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-0.77106139409668373</v>
+        <v>-0.77565234754822798</v>
       </c>
     </row>
     <row r="123">
@@ -1953,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-0.71028799684746957</v>
+        <v>-0.71476232806565454</v>
       </c>
     </row>
     <row r="124">
@@ -1964,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.45654339114695741</v>
+        <v>-0.46028858753257573</v>
       </c>
     </row>
     <row r="125">
@@ -1975,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.21274861267670531</v>
+        <v>-0.21487205080273908</v>
       </c>
     </row>
     <row r="126">
@@ -1986,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.17616294566096258</v>
+        <v>0.17503399903986416</v>
       </c>
     </row>
     <row r="127">
@@ -1997,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.036090986012182746</v>
+        <v>0.035722522054393302</v>
       </c>
     </row>
     <row r="128">
@@ -2008,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.053807926476601153</v>
+        <v>0.053568438689199915</v>
       </c>
     </row>
     <row r="129">
@@ -2217,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.8096444310521873</v>
+        <v>7.8030407161213233</v>
       </c>
     </row>
     <row r="148">
@@ -2228,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-4.7327691097067586</v>
+        <v>-4.7399670312971214</v>
       </c>
     </row>
     <row r="149">
@@ -2239,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-3.1389503257894913</v>
+        <v>-3.1478361323883819</v>
       </c>
     </row>
     <row r="150">
@@ -2250,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.0361065527400477</v>
+        <v>-3.0435707193201766</v>
       </c>
     </row>
     <row r="151">
@@ -2261,7 +2283,18 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-2.7684352398624656</v>
+        <v>-2.7772534156314532</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>2021.5</v>
+      </c>
+      <c r="B152" s="0">
+        <v>0</v>
+      </c>
+      <c r="C152" s="0">
+        <v>-1.7280701584331148</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -492,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -551,11 +560,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -608,6 +618,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,13 +638,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -501,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -561,11 +570,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -619,6 +629,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,13 +649,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
@@ -721,7 +732,7 @@
         <v>7.9000000000000181</v>
       </c>
       <c r="C8" s="0">
-        <v>7.9000000000001069</v>
+        <v>7.9000000000000181</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +743,7 @@
         <v>8.1033333333333513</v>
       </c>
       <c r="C9" s="0">
-        <v>8.1033333333334401</v>
+        <v>8.1033333333333513</v>
       </c>
     </row>
     <row r="10">
@@ -743,7 +754,7 @@
         <v>7.8266666666666485</v>
       </c>
       <c r="C10" s="0">
-        <v>7.8266666666667373</v>
+        <v>7.8266666666666485</v>
       </c>
     </row>
     <row r="11">
@@ -754,7 +765,7 @@
         <v>6.9199999999999484</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9200000000000372</v>
+        <v>6.9199999999999484</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +776,7 @@
         <v>6.2066666666666936</v>
       </c>
       <c r="C12" s="0">
-        <v>6.2066666666667825</v>
+        <v>6.2066666666666936</v>
       </c>
     </row>
     <row r="13">
@@ -776,7 +787,7 @@
         <v>6.266666666666687</v>
       </c>
       <c r="C13" s="0">
-        <v>6.2666666666667759</v>
+        <v>6.266666666666687</v>
       </c>
     </row>
     <row r="14">
@@ -787,7 +798,7 @@
         <v>6.2200000000000033</v>
       </c>
       <c r="C14" s="0">
-        <v>6.2200000000000921</v>
+        <v>6.2200000000000033</v>
       </c>
     </row>
     <row r="15">
@@ -809,7 +820,7 @@
         <v>6.843333333333379</v>
       </c>
       <c r="C16" s="0">
-        <v>6.8433333333334678</v>
+        <v>6.843333333333379</v>
       </c>
     </row>
     <row r="17">
@@ -820,7 +831,7 @@
         <v>6.9166666666666377</v>
       </c>
       <c r="C17" s="0">
-        <v>6.9166666666667265</v>
+        <v>6.9166666666666377</v>
       </c>
     </row>
     <row r="18">
@@ -831,7 +842,7 @@
         <v>6.6633333333333544</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6633333333334432</v>
+        <v>6.6633333333333544</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +853,7 @@
         <v>7.1566666666666556</v>
       </c>
       <c r="C19" s="0">
-        <v>7.1566666666667667</v>
+        <v>7.1566666666666556</v>
       </c>
     </row>
     <row r="20">
@@ -853,7 +864,7 @@
         <v>7.9833333333333423</v>
       </c>
       <c r="C20" s="0">
-        <v>7.9833333333334533</v>
+        <v>7.9833333333333423</v>
       </c>
     </row>
     <row r="21">
@@ -864,7 +875,7 @@
         <v>8.470000000000022</v>
       </c>
       <c r="C21" s="0">
-        <v>8.4700000000001108</v>
+        <v>8.470000000000022</v>
       </c>
     </row>
     <row r="22">
@@ -875,7 +886,7 @@
         <v>9.4433333333333813</v>
       </c>
       <c r="C22" s="0">
-        <v>9.4433333333334701</v>
+        <v>9.4433333333333813</v>
       </c>
     </row>
     <row r="23">
@@ -886,7 +897,7 @@
         <v>9.7266666666666612</v>
       </c>
       <c r="C23" s="0">
-        <v>9.7266666666667501</v>
+        <v>9.7266666666666612</v>
       </c>
     </row>
     <row r="24">
@@ -897,7 +908,7 @@
         <v>9.0833333333332877</v>
       </c>
       <c r="C24" s="0">
-        <v>9.0833333333333766</v>
+        <v>9.0833333333332877</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +919,7 @@
         <v>8.6133333333333404</v>
       </c>
       <c r="C25" s="0">
-        <v>8.6133333333334292</v>
+        <v>8.6133333333333404</v>
       </c>
     </row>
     <row r="26">
@@ -919,7 +930,7 @@
         <v>8.2500000000000462</v>
       </c>
       <c r="C26" s="0">
-        <v>8.250000000000135</v>
+        <v>8.2500000000000462</v>
       </c>
     </row>
     <row r="27">
@@ -930,7 +941,7 @@
         <v>8.2433333333333358</v>
       </c>
       <c r="C27" s="0">
-        <v>8.243333333333446</v>
+        <v>8.2433333333333358</v>
       </c>
     </row>
     <row r="28">
@@ -941,7 +952,7 @@
         <v>8.1600000000000339</v>
       </c>
       <c r="C28" s="0">
-        <v>8.1600000000001227</v>
+        <v>8.1600000000000339</v>
       </c>
     </row>
     <row r="29">
@@ -952,7 +963,7 @@
         <v>7.7433333333333465</v>
       </c>
       <c r="C29" s="0">
-        <v>7.7433333333334353</v>
+        <v>7.7433333333333465</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +974,7 @@
         <v>6.4266666666667138</v>
       </c>
       <c r="C30" s="0">
-        <v>6.4266666666668026</v>
+        <v>6.4266666666667138</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +985,7 @@
         <v>5.8633333333333093</v>
       </c>
       <c r="C31" s="0">
-        <v>5.8633333333333981</v>
+        <v>5.8633333333333093</v>
       </c>
     </row>
     <row r="32">
@@ -985,7 +996,7 @@
         <v>5.6433333333333113</v>
       </c>
       <c r="C32" s="0">
-        <v>5.6433333333334001</v>
+        <v>5.6433333333333113</v>
       </c>
     </row>
     <row r="33">
@@ -996,7 +1007,7 @@
         <v>4.8166666666666691</v>
       </c>
       <c r="C33" s="0">
-        <v>4.8166666666667579</v>
+        <v>4.8166666666666691</v>
       </c>
     </row>
     <row r="34">
@@ -1007,7 +1018,7 @@
         <v>4.0233333333333565</v>
       </c>
       <c r="C34" s="0">
-        <v>4.0233333333334453</v>
+        <v>4.0233333333333565</v>
       </c>
     </row>
     <row r="35">
@@ -1018,7 +1029,7 @@
         <v>3.7700000000000289</v>
       </c>
       <c r="C35" s="0">
-        <v>3.7700000000001177</v>
+        <v>3.7700000000000289</v>
       </c>
     </row>
     <row r="36">
@@ -1029,7 +1040,7 @@
         <v>3.2566666666666855</v>
       </c>
       <c r="C36" s="0">
-        <v>3.2566666666667965</v>
+        <v>3.2566666666666855</v>
       </c>
     </row>
     <row r="37">
@@ -1040,7 +1051,7 @@
         <v>3.0366666666666653</v>
       </c>
       <c r="C37" s="0">
-        <v>3.0366666666667541</v>
+        <v>3.0366666666666653</v>
       </c>
     </row>
     <row r="38">
@@ -1051,7 +1062,7 @@
         <v>3.0399999999999983</v>
       </c>
       <c r="C38" s="0">
-        <v>3.0400000000000871</v>
+        <v>3.0399999999999983</v>
       </c>
     </row>
     <row r="39">
@@ -1524,7 +1535,7 @@
         <v>0.99666666666664572</v>
       </c>
       <c r="C81" s="0">
-        <v>0.99639182326900499</v>
+        <v>0.99666666666664572</v>
       </c>
     </row>
     <row r="82">
@@ -1535,7 +1546,7 @@
         <v>1.0033333333333116</v>
       </c>
       <c r="C82" s="0">
-        <v>1.0029176028518938</v>
+        <v>1.0033333333333116</v>
       </c>
     </row>
     <row r="83">
@@ -1546,7 +1557,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095228599094508</v>
+        <v>1.0095615055630391</v>
       </c>
     </row>
     <row r="84">
@@ -1557,7 +1568,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4328447041452641</v>
+        <v>1.4326571222309292</v>
       </c>
     </row>
     <row r="85">
@@ -1568,7 +1579,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9495340410316864</v>
+        <v>1.949196345653248</v>
       </c>
     </row>
     <row r="86">
@@ -1579,7 +1590,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4695795576779034</v>
+        <v>2.4691399677738479</v>
       </c>
     </row>
     <row r="87">
@@ -1590,7 +1601,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9429727164916653</v>
+        <v>2.9424672522763151</v>
       </c>
     </row>
     <row r="88">
@@ -1601,7 +1612,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4597066708629276</v>
+        <v>3.4591640446189009</v>
       </c>
     </row>
     <row r="89">
@@ -1612,7 +1623,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.9797765655578132</v>
+        <v>3.979220649430526</v>
       </c>
     </row>
     <row r="90">
@@ -1623,7 +1634,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4565120716320239</v>
+        <v>4.4559629105553</v>
       </c>
     </row>
     <row r="91">
@@ -1634,7 +1645,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9065770706629763</v>
+        <v>4.9060512155716607</v>
       </c>
     </row>
     <row r="92">
@@ -1645,7 +1656,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2466363057630083</v>
+        <v>5.2461476225496018</v>
       </c>
     </row>
     <row r="93">
@@ -1656,7 +1667,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2466883505500217</v>
+        <v>5.2462487482324294</v>
       </c>
     </row>
     <row r="94">
@@ -1667,7 +1678,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2567322996835308</v>
+        <v>5.25635008410128</v>
       </c>
     </row>
     <row r="95">
@@ -1678,7 +1689,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2501011760757832</v>
+        <v>5.2497827595167523</v>
       </c>
     </row>
     <row r="96">
@@ -1689,7 +1700,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0734614948653389</v>
+        <v>5.0732118594682962</v>
       </c>
     </row>
     <row r="97">
@@ -1700,7 +1711,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4968131695784175</v>
+        <v>4.4966358992788003</v>
       </c>
     </row>
     <row r="98">
@@ -1711,7 +1722,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.176822794968337</v>
+        <v>3.176719879663592</v>
       </c>
     </row>
     <row r="99">
@@ -1722,7 +1733,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0868253592999597</v>
+        <v>2.0867963527678501</v>
       </c>
     </row>
     <row r="100">
@@ -1733,7 +1744,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401557652927393</v>
+        <v>1.9401999578886997</v>
       </c>
     </row>
     <row r="101">
@@ -1744,7 +1755,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50775031191936382</v>
+        <v>0.50805703250520473</v>
       </c>
     </row>
     <row r="102">
@@ -1755,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.6937772700994946</v>
+        <v>1.6214524346002568</v>
       </c>
     </row>
     <row r="103">
@@ -1766,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.67587175210195305</v>
+        <v>0.21241196858492462</v>
       </c>
     </row>
     <row r="104">
@@ -1777,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.10559049935601195</v>
+        <v>-0.70387970418479551</v>
       </c>
     </row>
     <row r="105">
@@ -1788,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.17776334042235442</v>
+        <v>-0.76185294950582572</v>
       </c>
     </row>
     <row r="106">
@@ -1799,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.1710687472153638</v>
+        <v>-0.59611952736741136</v>
       </c>
     </row>
     <row r="107">
@@ -1810,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-1.2615725352793983</v>
+        <v>-2.0555562698919339</v>
       </c>
     </row>
     <row r="108">
@@ -1821,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.138310679947796</v>
+        <v>-1.8806970553885805</v>
       </c>
     </row>
     <row r="109">
@@ -1832,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-1.5852699405839221</v>
+        <v>-2.5222233940824235</v>
       </c>
     </row>
     <row r="110">
@@ -1843,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.3650766135385073</v>
+        <v>-1.9730592759785393</v>
       </c>
     </row>
     <row r="111">
@@ -1854,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.0773344011158592</v>
+        <v>-1.5781234212484119</v>
       </c>
     </row>
     <row r="112">
@@ -1865,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-1.8490520193814364</v>
+        <v>-2.8532208889953004</v>
       </c>
     </row>
     <row r="113">
@@ -1876,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-1.2301890236138813</v>
+        <v>-2.4156176140262997</v>
       </c>
     </row>
     <row r="114">
@@ -1887,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-1.9960226293425531</v>
+        <v>-3.3071839649223667</v>
       </c>
     </row>
     <row r="115">
@@ -1898,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-1.7099618130806626</v>
+        <v>-3.0846357938296265</v>
       </c>
     </row>
     <row r="116">
@@ -1909,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-1.3547201128070174</v>
+        <v>-2.6387466274708449</v>
       </c>
     </row>
     <row r="117">
@@ -1920,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-2.455059325937381</v>
+        <v>-3.852702029197963</v>
       </c>
     </row>
     <row r="118">
@@ -1931,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-1.1911912825350535</v>
+        <v>-2.3216853288092976</v>
       </c>
     </row>
     <row r="119">
@@ -1942,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-0.70237546625840919</v>
+        <v>-1.5982884967712607</v>
       </c>
     </row>
     <row r="120">
@@ -1953,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-0.47871997828423662</v>
+        <v>-1.2036652146697913</v>
       </c>
     </row>
     <row r="121">
@@ -1964,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-0.56565540430401073</v>
+        <v>-1.2885194897732766</v>
       </c>
     </row>
     <row r="122">
@@ -1975,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-0.77565234754822798</v>
+        <v>-1.3383717508449688</v>
       </c>
     </row>
     <row r="123">
@@ -1986,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-0.71476232806565454</v>
+        <v>-1.2696528412588282</v>
       </c>
     </row>
     <row r="124">
@@ -1997,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.46028858753257573</v>
+        <v>-0.85968761417978268</v>
       </c>
     </row>
     <row r="125">
@@ -2008,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.21487205080273908</v>
+        <v>-0.3992858350052586</v>
       </c>
     </row>
     <row r="126">
@@ -2019,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.17503399903986416</v>
+        <v>0.1344667900119445</v>
       </c>
     </row>
     <row r="127">
@@ -2030,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.035722522054393302</v>
+        <v>0.01834107841980348</v>
       </c>
     </row>
     <row r="128">
@@ -2041,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.053568438689199915</v>
+        <v>0.0494541096738077</v>
       </c>
     </row>
     <row r="129">
@@ -2250,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.8030407161213233</v>
+        <v>7.7308233574941987</v>
       </c>
     </row>
     <row r="148">
@@ -2261,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-4.7399670312971214</v>
+        <v>-6.9493111435087185</v>
       </c>
     </row>
     <row r="149">
@@ -2272,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-3.1478361323883819</v>
+        <v>-4.4095068002942162</v>
       </c>
     </row>
     <row r="150">
@@ -2283,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.0435707193201766</v>
+        <v>-3.605580720065904</v>
       </c>
     </row>
     <row r="151">
@@ -2294,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-2.7772534156314532</v>
+        <v>-2.7587759143008705</v>
       </c>
     </row>
     <row r="152">
@@ -2305,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="0">
-        <v>-1.7280701584331148</v>
+        <v>-1.2762470788000191</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -510,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -571,11 +589,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -630,6 +650,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,13 +671,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -528,7 +564,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -591,11 +627,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -652,6 +692,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -671,13 +715,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -1579,7 +1623,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095615055630391</v>
+        <v>1.0095613250623581</v>
       </c>
     </row>
     <row r="84">
@@ -1590,7 +1634,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4326571222309292</v>
+        <v>1.432656869497051</v>
       </c>
     </row>
     <row r="85">
@@ -1601,7 +1645,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.949196345653248</v>
+        <v>1.9491960683761356</v>
       </c>
     </row>
     <row r="86">
@@ -1612,7 +1656,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4691399677738479</v>
+        <v>2.4691396904516605</v>
       </c>
     </row>
     <row r="87">
@@ -1623,7 +1667,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9424672522763151</v>
+        <v>2.9424669894994926</v>
       </c>
     </row>
     <row r="88">
@@ -1634,7 +1678,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4591640446189009</v>
+        <v>3.4591638057257734</v>
       </c>
     </row>
     <row r="89">
@@ -1645,7 +1689,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.979220649430526</v>
+        <v>3.9792204408714893</v>
       </c>
     </row>
     <row r="90">
@@ -1656,7 +1700,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4559629105553</v>
+        <v>4.4559627369300747</v>
       </c>
     </row>
     <row r="91">
@@ -1667,7 +1711,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9060512155716607</v>
+        <v>4.9060510801289148</v>
       </c>
     </row>
     <row r="92">
@@ -1678,7 +1722,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2461476225496018</v>
+        <v>5.2461475276541103</v>
       </c>
     </row>
     <row r="93">
@@ -1689,7 +1733,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2462487482324294</v>
+        <v>5.2462486955683785</v>
       </c>
     </row>
     <row r="94">
@@ -1700,7 +1744,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.25635008410128</v>
+        <v>5.2563500745136826</v>
       </c>
     </row>
     <row r="95">
@@ -1711,7 +1755,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2497827595167523</v>
+        <v>5.2497827934618213</v>
       </c>
     </row>
     <row r="96">
@@ -1722,7 +1766,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0732118594682962</v>
+        <v>5.0732119369917728</v>
       </c>
     </row>
     <row r="97">
@@ -1733,7 +1777,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4966358992788003</v>
+        <v>4.4966360198162914</v>
       </c>
     </row>
     <row r="98">
@@ -1744,7 +1788,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.176719879663592</v>
+        <v>3.1767200416648711</v>
       </c>
     </row>
     <row r="99">
@@ -1755,7 +1799,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0867963527678501</v>
+        <v>2.0867965552669343</v>
       </c>
     </row>
     <row r="100">
@@ -1766,7 +1810,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401999578886997</v>
+        <v>1.9402002012724795</v>
       </c>
     </row>
     <row r="101">
@@ -1777,7 +1821,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50805703250520473</v>
+        <v>0.50805694283571068</v>
       </c>
     </row>
     <row r="102">
@@ -1788,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.6214524346002568</v>
+        <v>1.6143332037749536</v>
       </c>
     </row>
     <row r="103">
@@ -1799,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.21241196858492462</v>
+        <v>0.20491834297065026</v>
       </c>
     </row>
     <row r="104">
@@ -1810,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.70387970418479551</v>
+        <v>-0.71108952572079831</v>
       </c>
     </row>
     <row r="105">
@@ -1821,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.76185294950582572</v>
+        <v>-0.76912085303370015</v>
       </c>
     </row>
     <row r="106">
@@ -1832,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.59611952736741136</v>
+        <v>-0.60252808630845145</v>
       </c>
     </row>
     <row r="107">
@@ -1843,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-2.0555562698919339</v>
+        <v>-2.0634282890471534</v>
       </c>
     </row>
     <row r="108">
@@ -1854,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.8806970553885805</v>
+        <v>-1.8886723178182963</v>
       </c>
     </row>
     <row r="109">
@@ -1865,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-2.5222233940824235</v>
+        <v>-2.5300849646885615</v>
       </c>
     </row>
     <row r="110">
@@ -1876,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.9730592759785393</v>
+        <v>-1.9808665525398617</v>
       </c>
     </row>
     <row r="111">
@@ -1887,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.5781234212484119</v>
+        <v>-1.5854631537771002</v>
       </c>
     </row>
     <row r="112">
@@ -1898,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-2.8532208889953004</v>
+        <v>-2.8607062990615661</v>
       </c>
     </row>
     <row r="113">
@@ -1909,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-2.4156176140262997</v>
+        <v>-2.4217347958699897</v>
       </c>
     </row>
     <row r="114">
@@ -1920,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-3.3071839649223667</v>
+        <v>-3.313265728242154</v>
       </c>
     </row>
     <row r="115">
@@ -1931,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-3.0846357938296265</v>
+        <v>-3.0897822715132306</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-2.6387466274708449</v>
+        <v>-2.6436980305593272</v>
       </c>
     </row>
     <row r="117">
@@ -1953,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-3.852702029197963</v>
+        <v>-3.857697797500248</v>
       </c>
     </row>
     <row r="118">
@@ -1964,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-2.3216853288092976</v>
+        <v>-2.3271712868010663</v>
       </c>
     </row>
     <row r="119">
@@ -1975,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-1.5982884967712607</v>
+        <v>-1.6049835861445816</v>
       </c>
     </row>
     <row r="120">
@@ -1986,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-1.2036652146697913</v>
+        <v>-1.211003789002163</v>
       </c>
     </row>
     <row r="121">
@@ -1997,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-1.2885194897732766</v>
+        <v>-1.2960217529530471</v>
       </c>
     </row>
     <row r="122">
@@ -2008,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-1.3383717508449688</v>
+        <v>-1.3459005823200587</v>
       </c>
     </row>
     <row r="123">
@@ -2019,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-1.2696528412588282</v>
+        <v>-1.277261379068606</v>
       </c>
     </row>
     <row r="124">
@@ -2030,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.85968761417978268</v>
+        <v>-0.8669078890010784</v>
       </c>
     </row>
     <row r="125">
@@ -2041,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.3992858350052586</v>
+        <v>-0.40434927102547258</v>
       </c>
     </row>
     <row r="126">
@@ -2052,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.1344667900119445</v>
+        <v>0.131373396207346</v>
       </c>
     </row>
     <row r="127">
@@ -2063,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.01834107841980348</v>
+        <v>0.017823339012745798</v>
       </c>
     </row>
     <row r="128">
@@ -2074,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.0494541096738077</v>
+        <v>0.04899030447687025</v>
       </c>
     </row>
     <row r="129">
@@ -2283,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.7308233574941987</v>
+        <v>7.7328677810758473</v>
       </c>
     </row>
     <row r="148">
@@ -2294,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-6.9493111435087185</v>
+        <v>-6.942753656964995</v>
       </c>
     </row>
     <row r="149">
@@ -2305,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-4.4095068002942162</v>
+        <v>-4.4147876959535148</v>
       </c>
     </row>
     <row r="150">
@@ -2316,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.605580720065904</v>
+        <v>-3.615120344168421</v>
       </c>
     </row>
     <row r="151">
@@ -2327,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-2.7587759143008705</v>
+        <v>-3.1359489682822206</v>
       </c>
     </row>
     <row r="152">
@@ -2338,7 +2382,18 @@
         <v>0</v>
       </c>
       <c r="C152" s="0">
-        <v>-1.2762470788000191</v>
+        <v>-1.6439898531997899</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>2021.75</v>
+      </c>
+      <c r="B153" s="0">
+        <v>0</v>
+      </c>
+      <c r="C153" s="0">
+        <v>-0.65474866359127581</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -564,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -631,11 +649,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -696,6 +716,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -715,13 +737,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
@@ -729,10 +751,10 @@
         <v>1984</v>
       </c>
       <c r="B2" s="0">
-        <v>9.6866666666666656</v>
+        <v>9.6866666666665768</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6866666666666656</v>
+        <v>9.6866666666665768</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +765,7 @@
         <v>10.556666666666658</v>
       </c>
       <c r="C3" s="0">
-        <v>10.556666666666658</v>
+        <v>10.556666666666569</v>
       </c>
     </row>
     <row r="4">
@@ -754,7 +776,7 @@
         <v>11.38999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.38999999999999</v>
+        <v>11.389999999999878</v>
       </c>
     </row>
     <row r="5">
@@ -765,7 +787,7 @@
         <v>9.2666666666667119</v>
       </c>
       <c r="C5" s="0">
-        <v>9.2666666666667119</v>
+        <v>9.2666666666666231</v>
       </c>
     </row>
     <row r="6">
@@ -776,7 +798,7 @@
         <v>8.4766666666667092</v>
       </c>
       <c r="C6" s="0">
-        <v>8.4766666666667092</v>
+        <v>8.4766666666665991</v>
       </c>
     </row>
     <row r="7">
@@ -787,7 +809,7 @@
         <v>7.9233333333333045</v>
       </c>
       <c r="C7" s="0">
-        <v>7.9233333333333045</v>
+        <v>7.9233333333332157</v>
       </c>
     </row>
     <row r="8">
@@ -798,7 +820,7 @@
         <v>7.9000000000000181</v>
       </c>
       <c r="C8" s="0">
-        <v>7.9000000000000181</v>
+        <v>7.8999999999999293</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +831,7 @@
         <v>8.1033333333333513</v>
       </c>
       <c r="C9" s="0">
-        <v>8.1033333333333513</v>
+        <v>8.1033333333332624</v>
       </c>
     </row>
     <row r="10">
@@ -820,7 +842,7 @@
         <v>7.8266666666666485</v>
       </c>
       <c r="C10" s="0">
-        <v>7.8266666666666485</v>
+        <v>7.8266666666665596</v>
       </c>
     </row>
     <row r="11">
@@ -831,7 +853,7 @@
         <v>6.9199999999999484</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9199999999999484</v>
+        <v>6.9199999999998596</v>
       </c>
     </row>
     <row r="12">
@@ -842,7 +864,7 @@
         <v>6.2066666666666936</v>
       </c>
       <c r="C12" s="0">
-        <v>6.2066666666666936</v>
+        <v>6.2066666666666048</v>
       </c>
     </row>
     <row r="13">
@@ -853,7 +875,7 @@
         <v>6.266666666666687</v>
       </c>
       <c r="C13" s="0">
-        <v>6.266666666666687</v>
+        <v>6.266666666666576</v>
       </c>
     </row>
     <row r="14">
@@ -864,7 +886,7 @@
         <v>6.2200000000000033</v>
       </c>
       <c r="C14" s="0">
-        <v>6.2200000000000033</v>
+        <v>6.2199999999999145</v>
       </c>
     </row>
     <row r="15">
@@ -875,7 +897,7 @@
         <v>6.6499999999999782</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6499999999999782</v>
+        <v>6.6499999999998893</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +908,7 @@
         <v>6.843333333333379</v>
       </c>
       <c r="C16" s="0">
-        <v>6.843333333333379</v>
+        <v>6.8433333333332902</v>
       </c>
     </row>
     <row r="17">
@@ -897,7 +919,7 @@
         <v>6.9166666666666377</v>
       </c>
       <c r="C17" s="0">
-        <v>6.9166666666666377</v>
+        <v>6.9166666666665266</v>
       </c>
     </row>
     <row r="18">
@@ -908,7 +930,7 @@
         <v>6.6633333333333544</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6633333333333544</v>
+        <v>6.6633333333332656</v>
       </c>
     </row>
     <row r="19">
@@ -919,7 +941,7 @@
         <v>7.1566666666666556</v>
       </c>
       <c r="C19" s="0">
-        <v>7.1566666666666556</v>
+        <v>7.1566666666665668</v>
       </c>
     </row>
     <row r="20">
@@ -930,7 +952,7 @@
         <v>7.9833333333333423</v>
       </c>
       <c r="C20" s="0">
-        <v>7.9833333333333423</v>
+        <v>7.9833333333332535</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +963,7 @@
         <v>8.470000000000022</v>
       </c>
       <c r="C21" s="0">
-        <v>8.470000000000022</v>
+        <v>8.4699999999999331</v>
       </c>
     </row>
     <row r="22">
@@ -952,7 +974,7 @@
         <v>9.4433333333333813</v>
       </c>
       <c r="C22" s="0">
-        <v>9.4433333333333813</v>
+        <v>9.4433333333332925</v>
       </c>
     </row>
     <row r="23">
@@ -963,7 +985,7 @@
         <v>9.7266666666666612</v>
       </c>
       <c r="C23" s="0">
-        <v>9.7266666666666612</v>
+        <v>9.7266666666665724</v>
       </c>
     </row>
     <row r="24">
@@ -974,7 +996,7 @@
         <v>9.0833333333332877</v>
       </c>
       <c r="C24" s="0">
-        <v>9.0833333333332877</v>
+        <v>9.0833333333331989</v>
       </c>
     </row>
     <row r="25">
@@ -985,7 +1007,7 @@
         <v>8.6133333333333404</v>
       </c>
       <c r="C25" s="0">
-        <v>8.6133333333333404</v>
+        <v>8.6133333333332516</v>
       </c>
     </row>
     <row r="26">
@@ -996,7 +1018,7 @@
         <v>8.2500000000000462</v>
       </c>
       <c r="C26" s="0">
-        <v>8.2500000000000462</v>
+        <v>8.2499999999999574</v>
       </c>
     </row>
     <row r="27">
@@ -1007,7 +1029,7 @@
         <v>8.2433333333333358</v>
       </c>
       <c r="C27" s="0">
-        <v>8.2433333333333358</v>
+        <v>8.243333333333247</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1040,7 @@
         <v>8.1600000000000339</v>
       </c>
       <c r="C28" s="0">
-        <v>8.1600000000000339</v>
+        <v>8.1599999999999451</v>
       </c>
     </row>
     <row r="29">
@@ -1029,7 +1051,7 @@
         <v>7.7433333333333465</v>
       </c>
       <c r="C29" s="0">
-        <v>7.7433333333333465</v>
+        <v>7.7433333333332577</v>
       </c>
     </row>
     <row r="30">
@@ -1040,7 +1062,7 @@
         <v>6.4266666666667138</v>
       </c>
       <c r="C30" s="0">
-        <v>6.4266666666667138</v>
+        <v>6.426666666666625</v>
       </c>
     </row>
     <row r="31">
@@ -1051,7 +1073,7 @@
         <v>5.8633333333333093</v>
       </c>
       <c r="C31" s="0">
-        <v>5.8633333333333093</v>
+        <v>5.8633333333332205</v>
       </c>
     </row>
     <row r="32">
@@ -1062,7 +1084,7 @@
         <v>5.6433333333333113</v>
       </c>
       <c r="C32" s="0">
-        <v>5.6433333333333113</v>
+        <v>5.6433333333332225</v>
       </c>
     </row>
     <row r="33">
@@ -1623,7 +1645,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095613250623581</v>
+        <v>1.0095634079110516</v>
       </c>
     </row>
     <row r="84">
@@ -1634,7 +1656,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.432656869497051</v>
+        <v>1.4326601082768287</v>
       </c>
     </row>
     <row r="85">
@@ -1645,7 +1667,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9491960683761356</v>
+        <v>1.9491999475314881</v>
       </c>
     </row>
     <row r="86">
@@ -1656,7 +1678,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4691396904516605</v>
+        <v>2.4691438670969568</v>
       </c>
     </row>
     <row r="87">
@@ -1667,7 +1689,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9424669894994926</v>
+        <v>2.9424712147130272</v>
       </c>
     </row>
     <row r="88">
@@ -1678,7 +1700,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4591638057257734</v>
+        <v>3.4591678976461759</v>
       </c>
     </row>
     <row r="89">
@@ -1689,7 +1711,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.9792204408714893</v>
+        <v>3.979224265190795</v>
       </c>
     </row>
     <row r="90">
@@ -1700,7 +1722,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4559627369300747</v>
+        <v>4.4559661970380526</v>
       </c>
     </row>
     <row r="91">
@@ -1711,7 +1733,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9060510801289148</v>
+        <v>4.9060541115272915</v>
       </c>
     </row>
     <row r="92">
@@ -1722,7 +1744,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2461475276541103</v>
+        <v>5.2461500897920788</v>
       </c>
     </row>
     <row r="93">
@@ -1733,7 +1755,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2462486955683785</v>
+        <v>5.2462507656800383</v>
       </c>
     </row>
     <row r="94">
@@ -1744,7 +1766,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2563500745136826</v>
+        <v>5.2563516530061527</v>
       </c>
     </row>
     <row r="95">
@@ -1755,7 +1777,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2497827934618213</v>
+        <v>5.2497838923445173</v>
       </c>
     </row>
     <row r="96">
@@ -1766,7 +1788,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0732119369917728</v>
+        <v>5.0732125765547531</v>
       </c>
     </row>
     <row r="97">
@@ -1777,7 +1799,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4966360198162914</v>
+        <v>4.4966362278598737</v>
       </c>
     </row>
     <row r="98">
@@ -1788,7 +1810,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1767200416648711</v>
+        <v>3.1767198540175512</v>
       </c>
     </row>
     <row r="99">
@@ -1799,7 +1821,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0867965552669343</v>
+        <v>2.0867960119344886</v>
       </c>
     </row>
     <row r="100">
@@ -1810,7 +1832,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9402002012724795</v>
+        <v>1.9401993364265957</v>
       </c>
     </row>
     <row r="101">
@@ -1821,7 +1843,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50805694283571068</v>
+        <v>0.50804939453934495</v>
       </c>
     </row>
     <row r="102">
@@ -1832,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.6143332037749536</v>
+        <v>1.591392451496243</v>
       </c>
     </row>
     <row r="103">
@@ -1843,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.20491834297065026</v>
+        <v>0.18153936519957892</v>
       </c>
     </row>
     <row r="104">
@@ -1854,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.71108952572079831</v>
+        <v>-0.73153365275446802</v>
       </c>
     </row>
     <row r="105">
@@ -1865,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.76912085303370015</v>
+        <v>-0.78973838638486393</v>
       </c>
     </row>
     <row r="106">
@@ -1876,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.60252808630845145</v>
+        <v>-0.61932171768126487</v>
       </c>
     </row>
     <row r="107">
@@ -1887,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-2.0634282890471534</v>
+        <v>-2.0881407141996711</v>
       </c>
     </row>
     <row r="108">
@@ -1898,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.8886723178182963</v>
+        <v>-1.916450710736417</v>
       </c>
     </row>
     <row r="109">
@@ -1909,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-2.5300849646885615</v>
+        <v>-2.560988738776182</v>
       </c>
     </row>
     <row r="110">
@@ -1920,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-1.9808665525398617</v>
+        <v>-2.0061879823781825</v>
       </c>
     </row>
     <row r="111">
@@ -1931,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.5854631537771002</v>
+        <v>-1.6079331322690571</v>
       </c>
     </row>
     <row r="112">
@@ -1942,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-2.8607062990615661</v>
+        <v>-2.8955959642015916</v>
       </c>
     </row>
     <row r="113">
@@ -1953,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-2.4217347958699897</v>
+        <v>-2.4625055418208697</v>
       </c>
     </row>
     <row r="114">
@@ -1964,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-3.313265728242154</v>
+        <v>-3.3551770112617341</v>
       </c>
     </row>
     <row r="115">
@@ -1975,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-3.0897822715132306</v>
+        <v>-3.1330787178836306</v>
       </c>
     </row>
     <row r="116">
@@ -1986,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-2.6436980305593272</v>
+        <v>-2.6859582223774825</v>
       </c>
     </row>
     <row r="117">
@@ -1997,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-3.857697797500248</v>
+        <v>-3.8952555099290964</v>
       </c>
     </row>
     <row r="118">
@@ -2008,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-2.3271712868010663</v>
+        <v>-2.3585523576021949</v>
       </c>
     </row>
     <row r="119">
@@ -2019,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-1.6049835861445816</v>
+        <v>-1.630369110900376</v>
       </c>
     </row>
     <row r="120">
@@ -2030,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-1.211003789002163</v>
+        <v>-1.2308324022547446</v>
       </c>
     </row>
     <row r="121">
@@ -2041,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-1.2960217529530471</v>
+        <v>-1.3143042000176131</v>
       </c>
     </row>
     <row r="122">
@@ -2052,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-1.3459005823200587</v>
+        <v>-1.3608478644916544</v>
       </c>
     </row>
     <row r="123">
@@ -2063,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-1.277261379068606</v>
+        <v>-1.2902938884155168</v>
       </c>
     </row>
     <row r="124">
@@ -2074,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.8669078890010784</v>
+        <v>-0.87651294332203866</v>
       </c>
     </row>
     <row r="125">
@@ -2085,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.40434927102547258</v>
+        <v>-0.41013593310598173</v>
       </c>
     </row>
     <row r="126">
@@ -2096,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.131373396207346</v>
+        <v>0.12832105241287195</v>
       </c>
     </row>
     <row r="127">
@@ -2107,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.017823339012745798</v>
+        <v>0.016245456115782098</v>
       </c>
     </row>
     <row r="128">
@@ -2118,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.04899030447687025</v>
+        <v>0.047772073577179164</v>
       </c>
     </row>
     <row r="129">
@@ -2327,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.7328677810758473</v>
+        <v>7.7628117717102318</v>
       </c>
     </row>
     <row r="148">
@@ -2338,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-6.942753656964995</v>
+        <v>-6.9697272932938485</v>
       </c>
     </row>
     <row r="149">
@@ -2349,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-4.4147876959535148</v>
+        <v>-4.5222797955217553</v>
       </c>
     </row>
     <row r="150">
@@ -2360,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.615120344168421</v>
+        <v>-3.5240795397061486</v>
       </c>
     </row>
     <row r="151">
@@ -2371,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-3.1359489682822206</v>
+        <v>-3.1477835207301408</v>
       </c>
     </row>
     <row r="152">
@@ -2382,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="0">
-        <v>-1.6439898531997899</v>
+        <v>-1.8116100516775258</v>
       </c>
     </row>
     <row r="153">
@@ -2393,7 +2415,18 @@
         <v>0</v>
       </c>
       <c r="C153" s="0">
-        <v>-0.65474866359127581</v>
+        <v>-0.64562495193367653</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>2022</v>
+      </c>
+      <c r="B154" s="0">
+        <v>0</v>
+      </c>
+      <c r="C154" s="0">
+        <v>0.32115971420862977</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -582,7 +591,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -651,11 +660,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -718,6 +728,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,13 +748,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -591,7 +600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -661,11 +670,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -729,6 +739,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,13 +759,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -749,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -759,13 +768,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
@@ -773,10 +782,10 @@
         <v>1984</v>
       </c>
       <c r="B2" s="0">
-        <v>9.6866666666665768</v>
+        <v>9.6866666666666656</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6866666666665768</v>
+        <v>9.6866666666666656</v>
       </c>
     </row>
     <row r="3">
@@ -787,7 +796,7 @@
         <v>10.556666666666658</v>
       </c>
       <c r="C3" s="0">
-        <v>10.556666666666569</v>
+        <v>10.556666666666658</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +807,7 @@
         <v>11.38999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.389999999999878</v>
+        <v>11.38999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -809,7 +818,7 @@
         <v>9.2666666666667119</v>
       </c>
       <c r="C5" s="0">
-        <v>9.2666666666666231</v>
+        <v>9.2666666666667119</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +829,7 @@
         <v>8.4766666666667092</v>
       </c>
       <c r="C6" s="0">
-        <v>8.4766666666665991</v>
+        <v>8.4766666666667092</v>
       </c>
     </row>
     <row r="7">
@@ -831,7 +840,7 @@
         <v>7.9233333333333045</v>
       </c>
       <c r="C7" s="0">
-        <v>7.9233333333332157</v>
+        <v>7.9233333333333045</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +851,7 @@
         <v>7.9000000000000181</v>
       </c>
       <c r="C8" s="0">
-        <v>7.8999999999999293</v>
+        <v>7.9000000000000181</v>
       </c>
     </row>
     <row r="9">
@@ -853,7 +862,7 @@
         <v>8.1033333333333513</v>
       </c>
       <c r="C9" s="0">
-        <v>8.1033333333332624</v>
+        <v>8.1033333333333513</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +873,7 @@
         <v>7.8266666666666485</v>
       </c>
       <c r="C10" s="0">
-        <v>7.8266666666665596</v>
+        <v>7.8266666666666485</v>
       </c>
     </row>
     <row r="11">
@@ -875,7 +884,7 @@
         <v>6.9199999999999484</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9199999999998596</v>
+        <v>6.9199999999999484</v>
       </c>
     </row>
     <row r="12">
@@ -886,7 +895,7 @@
         <v>6.2066666666666936</v>
       </c>
       <c r="C12" s="0">
-        <v>6.2066666666666048</v>
+        <v>6.2066666666666936</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +906,7 @@
         <v>6.266666666666687</v>
       </c>
       <c r="C13" s="0">
-        <v>6.266666666666576</v>
+        <v>6.266666666666687</v>
       </c>
     </row>
     <row r="14">
@@ -908,7 +917,7 @@
         <v>6.2200000000000033</v>
       </c>
       <c r="C14" s="0">
-        <v>6.2199999999999145</v>
+        <v>6.2200000000000033</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +928,7 @@
         <v>6.6499999999999782</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6499999999998893</v>
+        <v>6.6499999999999782</v>
       </c>
     </row>
     <row r="16">
@@ -930,7 +939,7 @@
         <v>6.843333333333379</v>
       </c>
       <c r="C16" s="0">
-        <v>6.8433333333332902</v>
+        <v>6.843333333333379</v>
       </c>
     </row>
     <row r="17">
@@ -941,7 +950,7 @@
         <v>6.9166666666666377</v>
       </c>
       <c r="C17" s="0">
-        <v>6.9166666666665266</v>
+        <v>6.9166666666666377</v>
       </c>
     </row>
     <row r="18">
@@ -952,7 +961,7 @@
         <v>6.6633333333333544</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6633333333332656</v>
+        <v>6.6633333333333544</v>
       </c>
     </row>
     <row r="19">
@@ -963,7 +972,7 @@
         <v>7.1566666666666556</v>
       </c>
       <c r="C19" s="0">
-        <v>7.1566666666665668</v>
+        <v>7.1566666666666556</v>
       </c>
     </row>
     <row r="20">
@@ -974,7 +983,7 @@
         <v>7.9833333333333423</v>
       </c>
       <c r="C20" s="0">
-        <v>7.9833333333332535</v>
+        <v>7.9833333333333423</v>
       </c>
     </row>
     <row r="21">
@@ -985,7 +994,7 @@
         <v>8.470000000000022</v>
       </c>
       <c r="C21" s="0">
-        <v>8.4699999999999331</v>
+        <v>8.470000000000022</v>
       </c>
     </row>
     <row r="22">
@@ -996,7 +1005,7 @@
         <v>9.4433333333333813</v>
       </c>
       <c r="C22" s="0">
-        <v>9.4433333333332925</v>
+        <v>9.4433333333333813</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1016,7 @@
         <v>9.7266666666666612</v>
       </c>
       <c r="C23" s="0">
-        <v>9.7266666666665724</v>
+        <v>9.7266666666666612</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1027,7 @@
         <v>9.0833333333332877</v>
       </c>
       <c r="C24" s="0">
-        <v>9.0833333333331989</v>
+        <v>9.0833333333332877</v>
       </c>
     </row>
     <row r="25">
@@ -1029,7 +1038,7 @@
         <v>8.6133333333333404</v>
       </c>
       <c r="C25" s="0">
-        <v>8.6133333333332516</v>
+        <v>8.6133333333333404</v>
       </c>
     </row>
     <row r="26">
@@ -1040,7 +1049,7 @@
         <v>8.2500000000000462</v>
       </c>
       <c r="C26" s="0">
-        <v>8.2499999999999574</v>
+        <v>8.2500000000000462</v>
       </c>
     </row>
     <row r="27">
@@ -1051,7 +1060,7 @@
         <v>8.2433333333333358</v>
       </c>
       <c r="C27" s="0">
-        <v>8.243333333333247</v>
+        <v>8.2433333333333358</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1071,7 @@
         <v>8.1600000000000339</v>
       </c>
       <c r="C28" s="0">
-        <v>8.1599999999999451</v>
+        <v>8.1600000000000339</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1082,7 @@
         <v>7.7433333333333465</v>
       </c>
       <c r="C29" s="0">
-        <v>7.7433333333332577</v>
+        <v>7.7433333333333465</v>
       </c>
     </row>
     <row r="30">
@@ -1084,7 +1093,7 @@
         <v>6.4266666666667138</v>
       </c>
       <c r="C30" s="0">
-        <v>6.426666666666625</v>
+        <v>6.4266666666667138</v>
       </c>
     </row>
     <row r="31">
@@ -1095,7 +1104,7 @@
         <v>5.8633333333333093</v>
       </c>
       <c r="C31" s="0">
-        <v>5.8633333333332205</v>
+        <v>5.8633333333333093</v>
       </c>
     </row>
     <row r="32">
@@ -1106,7 +1115,7 @@
         <v>5.6433333333333113</v>
       </c>
       <c r="C32" s="0">
-        <v>5.6433333333332225</v>
+        <v>5.6433333333333113</v>
       </c>
     </row>
     <row r="33">
@@ -1667,7 +1676,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095634079110516</v>
+        <v>1.0095644852907482</v>
       </c>
     </row>
     <row r="84">
@@ -1678,7 +1687,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4326601082768287</v>
+        <v>1.4326618188572171</v>
       </c>
     </row>
     <row r="85">
@@ -1689,7 +1698,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9491999475314881</v>
+        <v>1.9492020233372376</v>
       </c>
     </row>
     <row r="86">
@@ -1700,7 +1709,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.4691438670969568</v>
+        <v>2.469146119378518</v>
       </c>
     </row>
     <row r="87">
@@ -1711,7 +1720,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9424712147130272</v>
+        <v>2.9424735024446314</v>
       </c>
     </row>
     <row r="88">
@@ -1722,7 +1731,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4591678976461759</v>
+        <v>3.4591701165262334</v>
       </c>
     </row>
     <row r="89">
@@ -1733,7 +1742,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.979224265190795</v>
+        <v>3.9792263382187221</v>
       </c>
     </row>
     <row r="90">
@@ -1744,7 +1753,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4559661970380526</v>
+        <v>4.4559680694457704</v>
       </c>
     </row>
     <row r="91">
@@ -1755,7 +1764,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9060541115272915</v>
+        <v>4.9060557476848121</v>
       </c>
     </row>
     <row r="92">
@@ -1766,7 +1775,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2461500897920788</v>
+        <v>5.2461514685704591</v>
       </c>
     </row>
     <row r="93">
@@ -1777,7 +1786,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2462507656800383</v>
+        <v>5.2462518768494615</v>
       </c>
     </row>
     <row r="94">
@@ -1788,7 +1797,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2563516530061527</v>
+        <v>5.2563524998095357</v>
       </c>
     </row>
     <row r="95">
@@ -1799,7 +1808,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2497838923445173</v>
+        <v>5.2497844849701547</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1819,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0732125765547531</v>
+        <v>5.0732129300818052</v>
       </c>
     </row>
     <row r="97">
@@ -1821,7 +1830,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4966362278598737</v>
+        <v>4.4966363615588811</v>
       </c>
     </row>
     <row r="98">
@@ -1832,7 +1841,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1767198540175512</v>
+        <v>3.1767197912769385</v>
       </c>
     </row>
     <row r="99">
@@ -1843,7 +1852,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0867960119344886</v>
+        <v>2.0867957783288871</v>
       </c>
     </row>
     <row r="100">
@@ -1854,7 +1863,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401993364265957</v>
+        <v>1.9401989546452558</v>
       </c>
     </row>
     <row r="101">
@@ -1865,7 +1874,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50804939453934495</v>
+        <v>0.50804490865814511</v>
       </c>
     </row>
     <row r="102">
@@ -1876,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.591392451496243</v>
+        <v>1.5661633579286072</v>
       </c>
     </row>
     <row r="103">
@@ -1887,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.18153936519957892</v>
+        <v>0.15582813267003282</v>
       </c>
     </row>
     <row r="104">
@@ -1898,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.73153365275446802</v>
+        <v>-0.75463815435371506</v>
       </c>
     </row>
     <row r="105">
@@ -1909,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.78973838638486393</v>
+        <v>-0.81316991756992252</v>
       </c>
     </row>
     <row r="106">
@@ -1920,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.61932171768126487</v>
+        <v>-0.63912249849057412</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-2.0881407141996711</v>
+        <v>-2.1146489778002375</v>
       </c>
     </row>
     <row r="108">
@@ -1942,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.916450710736417</v>
+        <v>-1.9455135252334221</v>
       </c>
     </row>
     <row r="109">
@@ -1953,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-2.560988738776182</v>
+        <v>-2.5917739147462204</v>
       </c>
     </row>
     <row r="110">
@@ -1964,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-2.0061879823781825</v>
+        <v>-2.033718244772964</v>
       </c>
     </row>
     <row r="111">
@@ -1975,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.6079331322690571</v>
+        <v>-1.6326974318047527</v>
       </c>
     </row>
     <row r="112">
@@ -1986,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-2.8955959642015916</v>
+        <v>-2.9277499964555642</v>
       </c>
     </row>
     <row r="113">
@@ -1997,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-2.4625055418208697</v>
+        <v>-2.4959124021643131</v>
       </c>
     </row>
     <row r="114">
@@ -2008,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-3.3551770112617341</v>
+        <v>-3.3885608806698109</v>
       </c>
     </row>
     <row r="115">
@@ -2019,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-3.1330787178836306</v>
+        <v>-3.1667355933425179</v>
       </c>
     </row>
     <row r="116">
@@ -2030,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-2.6859582223774825</v>
+        <v>-2.7198893492279219</v>
       </c>
     </row>
     <row r="117">
@@ -2041,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-3.8952555099290964</v>
+        <v>-3.9289419607052345</v>
       </c>
     </row>
     <row r="118">
@@ -2052,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-2.3585523576021949</v>
+        <v>-2.3927352934774437</v>
       </c>
     </row>
     <row r="119">
@@ -2063,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-1.630369110900376</v>
+        <v>-1.6639228974752784</v>
       </c>
     </row>
     <row r="120">
@@ -2074,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-1.2308324022547446</v>
+        <v>-1.261898555299712</v>
       </c>
     </row>
     <row r="121">
@@ -2085,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-1.3143042000176131</v>
+        <v>-1.345229464597486</v>
       </c>
     </row>
     <row r="122">
@@ -2096,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-1.3608478644916544</v>
+        <v>-1.389430199498487</v>
       </c>
     </row>
     <row r="123">
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-1.2902938884155168</v>
+        <v>-1.3187014538249997</v>
       </c>
     </row>
     <row r="124">
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.87651294332203866</v>
+        <v>-0.90182998292647198</v>
       </c>
     </row>
     <row r="125">
@@ -2129,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.41013593310598173</v>
+        <v>-0.4262698891469241</v>
       </c>
     </row>
     <row r="126">
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.12832105241287195</v>
+        <v>0.11883093916928988</v>
       </c>
     </row>
     <row r="127">
@@ -2151,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.016245456115782098</v>
+        <v>0.013959001859453757</v>
       </c>
     </row>
     <row r="128">
@@ -2162,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.047772073577179164</v>
+        <v>0.045959605657341918</v>
       </c>
     </row>
     <row r="129">
@@ -2371,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.7628117717102318</v>
+        <v>7.7369370703141982</v>
       </c>
     </row>
     <row r="148">
@@ -2382,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-6.9697272932938485</v>
+        <v>-6.9930088636783072</v>
       </c>
     </row>
     <row r="149">
@@ -2393,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-4.5222797955217553</v>
+        <v>-4.5457970447790537</v>
       </c>
     </row>
     <row r="150">
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.5240795397061486</v>
+        <v>-3.5489478876860603</v>
       </c>
     </row>
     <row r="151">
@@ -2415,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-3.1477835207301408</v>
+        <v>-3.1720970028084383</v>
       </c>
     </row>
     <row r="152">
@@ -2426,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="0">
-        <v>-1.8116100516775258</v>
+        <v>-1.8337893281270667</v>
       </c>
     </row>
     <row r="153">
@@ -2437,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="0">
-        <v>-0.64562495193367653</v>
+        <v>-0.68844937170036147</v>
       </c>
     </row>
     <row r="154">
@@ -2448,7 +2457,18 @@
         <v>0</v>
       </c>
       <c r="C154" s="0">
-        <v>0.32115971420862977</v>
+        <v>0.32115355935036227</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>2022.25</v>
+      </c>
+      <c r="B155" s="0">
+        <v>0.77000000000004842</v>
+      </c>
+      <c r="C155" s="0">
+        <v>4.8111641710187669</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -768,13 +777,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -777,13 +786,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -786,13 +795,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
@@ -1694,7 +1703,7 @@
         <v>1.0099999999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0095644852907482</v>
+        <v>1.0099999999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1705,7 +1714,7 @@
         <v>1.4333333333332865</v>
       </c>
       <c r="C84" s="0">
-        <v>1.4326618188572171</v>
+        <v>1.4333333333332865</v>
       </c>
     </row>
     <row r="85">
@@ -1716,7 +1725,7 @@
         <v>1.9500000000000517</v>
       </c>
       <c r="C85" s="0">
-        <v>1.9492020233372376</v>
+        <v>1.9500000000000517</v>
       </c>
     </row>
     <row r="86">
@@ -1727,7 +1736,7 @@
         <v>2.46999999999995</v>
       </c>
       <c r="C86" s="0">
-        <v>2.469146119378518</v>
+        <v>2.46999999999995</v>
       </c>
     </row>
     <row r="87">
@@ -1738,7 +1747,7 @@
         <v>2.9433333333333422</v>
       </c>
       <c r="C87" s="0">
-        <v>2.9424735024446314</v>
+        <v>2.9433333333333422</v>
       </c>
     </row>
     <row r="88">
@@ -1749,7 +1758,7 @@
         <v>3.4600000000000408</v>
       </c>
       <c r="C88" s="0">
-        <v>3.4591701165262334</v>
+        <v>3.4600000000000408</v>
       </c>
     </row>
     <row r="89">
@@ -1760,7 +1769,7 @@
         <v>3.980000000000028</v>
       </c>
       <c r="C89" s="0">
-        <v>3.9792263382187221</v>
+        <v>3.980000000000028</v>
       </c>
     </row>
     <row r="90">
@@ -1771,7 +1780,7 @@
         <v>4.4566666666666865</v>
       </c>
       <c r="C90" s="0">
-        <v>4.4559680694457704</v>
+        <v>4.4566666666666865</v>
       </c>
     </row>
     <row r="91">
@@ -1782,7 +1791,7 @@
         <v>4.9066666666667036</v>
       </c>
       <c r="C91" s="0">
-        <v>4.9060557476848121</v>
+        <v>4.9066666666667036</v>
       </c>
     </row>
     <row r="92">
@@ -1793,7 +1802,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C92" s="0">
-        <v>5.2461514685704591</v>
+        <v>5.2466666666666884</v>
       </c>
     </row>
     <row r="93">
@@ -1804,7 +1813,7 @@
         <v>5.2466666666666884</v>
       </c>
       <c r="C93" s="0">
-        <v>5.2462518768494615</v>
+        <v>5.2466666666666884</v>
       </c>
     </row>
     <row r="94">
@@ -1815,7 +1824,7 @@
         <v>5.2566666666666872</v>
       </c>
       <c r="C94" s="0">
-        <v>5.2563524998095357</v>
+        <v>5.2566666666666872</v>
       </c>
     </row>
     <row r="95">
@@ -1826,7 +1835,7 @@
         <v>5.2499999999999547</v>
       </c>
       <c r="C95" s="0">
-        <v>5.2497844849701547</v>
+        <v>5.2499999999999547</v>
       </c>
     </row>
     <row r="96">
@@ -1837,7 +1846,7 @@
         <v>5.0733333333333519</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0732129300818052</v>
+        <v>5.0733333333333519</v>
       </c>
     </row>
     <row r="97">
@@ -1848,7 +1857,7 @@
         <v>4.4966666666666821</v>
       </c>
       <c r="C97" s="0">
-        <v>4.4966363615588811</v>
+        <v>4.4966666666666821</v>
       </c>
     </row>
     <row r="98">
@@ -1859,7 +1868,7 @@
         <v>3.1766666666666721</v>
       </c>
       <c r="C98" s="0">
-        <v>3.1767197912769385</v>
+        <v>3.1766666666666721</v>
       </c>
     </row>
     <row r="99">
@@ -1870,7 +1879,7 @@
         <v>2.0866666666666589</v>
       </c>
       <c r="C99" s="0">
-        <v>2.0867957783288871</v>
+        <v>2.0866666666666589</v>
       </c>
     </row>
     <row r="100">
@@ -1881,7 +1890,7 @@
         <v>1.9400000000000306</v>
       </c>
       <c r="C100" s="0">
-        <v>1.9401989546452558</v>
+        <v>1.9400000000000306</v>
       </c>
     </row>
     <row r="101">
@@ -1892,7 +1901,7 @@
         <v>0.50666666666669968</v>
       </c>
       <c r="C101" s="0">
-        <v>0.50804490865814511</v>
+        <v>0.50666666666669968</v>
       </c>
     </row>
     <row r="102">
@@ -1903,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.5661633579286072</v>
+        <v>1.5644100661329263</v>
       </c>
     </row>
     <row r="103">
@@ -1914,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.15582813267003282</v>
+        <v>0.15381492810846442</v>
       </c>
     </row>
     <row r="104">
@@ -1925,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.75463815435371506</v>
+        <v>-0.75685101137021871</v>
       </c>
     </row>
     <row r="105">
@@ -1936,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.81316991756992252</v>
+        <v>-0.81554564032254584</v>
       </c>
     </row>
     <row r="106">
@@ -1947,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.63912249849057412</v>
+        <v>-0.6416259119449097</v>
       </c>
     </row>
     <row r="107">
@@ -1958,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-2.1146489778002375</v>
+        <v>-2.1172160245955141</v>
       </c>
     </row>
     <row r="108">
@@ -1969,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.9455135252334221</v>
+        <v>-1.9481499050362561</v>
       </c>
     </row>
     <row r="109">
@@ -1980,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-2.5917739147462204</v>
+        <v>-2.5944422362642161</v>
       </c>
     </row>
     <row r="110">
@@ -1991,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-2.033718244772964</v>
+        <v>-2.0364267729091945</v>
       </c>
     </row>
     <row r="111">
@@ -2002,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.6326974318047527</v>
+        <v>-1.6354297542721441</v>
       </c>
     </row>
     <row r="112">
@@ -2013,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-2.9277499964555642</v>
+        <v>-2.9304604453149752</v>
       </c>
     </row>
     <row r="113">
@@ -2024,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-2.4959124021643131</v>
+        <v>-2.4986285784151963</v>
       </c>
     </row>
     <row r="114">
@@ -2035,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-3.3885608806698109</v>
+        <v>-3.3912490345689217</v>
       </c>
     </row>
     <row r="115">
@@ -2046,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-3.1667355933425179</v>
+        <v>-3.1694143390114449</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-2.7198893492279219</v>
+        <v>-2.7225598887246738</v>
       </c>
     </row>
     <row r="117">
@@ -2068,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-3.9289419607052345</v>
+        <v>-3.9315679629496891</v>
       </c>
     </row>
     <row r="118">
@@ -2079,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-2.3927352934774437</v>
+        <v>-2.3953712625286117</v>
       </c>
     </row>
     <row r="119">
@@ -2090,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-1.6639228974752784</v>
+        <v>-1.6665512287220907</v>
       </c>
     </row>
     <row r="120">
@@ -2101,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-1.261898555299712</v>
+        <v>-1.2645121197149334</v>
       </c>
     </row>
     <row r="121">
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-1.345229464597486</v>
+        <v>-1.347818668068812</v>
       </c>
     </row>
     <row r="122">
@@ -2123,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-1.389430199498487</v>
+        <v>-1.3919962197895264</v>
       </c>
     </row>
     <row r="123">
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-1.3187014538249997</v>
+        <v>-1.3212470101792828</v>
       </c>
     </row>
     <row r="124">
@@ -2145,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.90182998292647198</v>
+        <v>-0.90436262321058614</v>
       </c>
     </row>
     <row r="125">
@@ -2156,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.4262698891469241</v>
+        <v>-0.42879133966411409</v>
       </c>
     </row>
     <row r="126">
@@ -2167,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.11883093916928988</v>
+        <v>0.11631853045925844</v>
       </c>
     </row>
     <row r="127">
@@ -2178,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.013959001859453757</v>
+        <v>0.011467014846999746</v>
       </c>
     </row>
     <row r="128">
@@ -2189,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.045959605657341918</v>
+        <v>0.043484487817080364</v>
       </c>
     </row>
     <row r="129">
@@ -2398,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.7369370703141982</v>
+        <v>7.1352820388482119</v>
       </c>
     </row>
     <row r="148">
@@ -2409,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-6.9930088636783072</v>
+        <v>-7.5740026381281744</v>
       </c>
     </row>
     <row r="149">
@@ -2420,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-4.5457970447790537</v>
+        <v>-5.1664767494255859</v>
       </c>
     </row>
     <row r="150">
@@ -2431,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-3.5489478876860603</v>
+        <v>-4.1916978406747134</v>
       </c>
     </row>
     <row r="151">
@@ -2442,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-3.1720970028084383</v>
+        <v>-3.8252569046508089</v>
       </c>
     </row>
     <row r="152">
@@ -2453,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="0">
-        <v>-1.8337893281270667</v>
+        <v>-2.4954228601575146</v>
       </c>
     </row>
     <row r="153">
@@ -2464,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="0">
-        <v>-0.68844937170036147</v>
+        <v>-1.3521292502786331</v>
       </c>
     </row>
     <row r="154">
@@ -2475,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="0">
-        <v>0.32115355935036227</v>
+        <v>-0.33951068032125331</v>
       </c>
     </row>
     <row r="155">
@@ -2486,7 +2495,7 @@
         <v>0.77000000000004842</v>
       </c>
       <c r="C155" s="0">
-        <v>4.8111641710187669</v>
+        <v>0.77000000000004842</v>
       </c>
     </row>
   </sheetData>

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -795,13 +858,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
@@ -809,10 +872,10 @@
         <v>1984</v>
       </c>
       <c r="B2" s="0">
-        <v>9.6866666666666656</v>
+        <v>9.6866666666667545</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6866666666666656</v>
+        <v>9.6866666666667545</v>
       </c>
     </row>
     <row r="3">
@@ -1912,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0">
-        <v>1.5644100661329263</v>
+        <v>1.5775537756388847</v>
       </c>
     </row>
     <row r="103">
@@ -1923,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="0">
-        <v>0.15381492810846442</v>
+        <v>0.16775172713514586</v>
       </c>
     </row>
     <row r="104">
@@ -1934,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.75685101137021871</v>
+        <v>-0.74389033782763514</v>
       </c>
     </row>
     <row r="105">
@@ -1945,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.81554564032254584</v>
+        <v>-0.80245942206732535</v>
       </c>
     </row>
     <row r="106">
@@ -1956,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.6416259119449097</v>
+        <v>-0.63026216887094311</v>
       </c>
     </row>
     <row r="107">
@@ -1967,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="0">
-        <v>-2.1172160245955141</v>
+        <v>-2.1024210675325117</v>
       </c>
     </row>
     <row r="108">
@@ -1978,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.9481499050362561</v>
+        <v>-1.9322171886070216</v>
       </c>
     </row>
     <row r="109">
@@ -1989,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="0">
-        <v>-2.5944422362642161</v>
+        <v>-2.5774161397115525</v>
       </c>
     </row>
     <row r="110">
@@ -2000,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>-2.0364267729091945</v>
+        <v>-2.0215396513580952</v>
       </c>
     </row>
     <row r="111">
@@ -2011,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0">
-        <v>-1.6354297542721441</v>
+        <v>-1.6219739495136776</v>
       </c>
     </row>
     <row r="112">
@@ -2022,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>-2.9304604453149752</v>
+        <v>-2.9124924104203531</v>
       </c>
     </row>
     <row r="113">
@@ -2033,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>-2.4986285784151963</v>
+        <v>-2.479521876826718</v>
       </c>
     </row>
     <row r="114">
@@ -2044,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>-3.3912490345689217</v>
+        <v>-3.3719517909621466</v>
       </c>
     </row>
     <row r="115">
@@ -2055,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>-3.1694143390114449</v>
+        <v>-3.1497286216460307</v>
       </c>
     </row>
     <row r="116">
@@ -2066,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>-2.7225598887246738</v>
+        <v>-2.7029206466402056</v>
       </c>
     </row>
     <row r="117">
@@ -2077,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>-3.9315679629496891</v>
+        <v>-3.9116689347991951</v>
       </c>
     </row>
     <row r="118">
@@ -2088,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>-2.3953712625286117</v>
+        <v>-2.3761542278954995</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="0">
-        <v>-1.6665512287220907</v>
+        <v>-1.6485086014214279</v>
       </c>
     </row>
     <row r="120">
@@ -2110,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>-1.2645121197149334</v>
+        <v>-1.2481728989292451</v>
       </c>
     </row>
     <row r="121">
@@ -2121,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="0">
-        <v>-1.347818668068812</v>
+        <v>-1.3313759744145282</v>
       </c>
     </row>
     <row r="122">
@@ -2132,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="0">
-        <v>-1.3919962197895264</v>
+        <v>-1.3766592037401049</v>
       </c>
     </row>
     <row r="123">
@@ -2143,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>-1.3212470101792828</v>
+        <v>-1.3059446539577801</v>
       </c>
     </row>
     <row r="124">
@@ -2154,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>-0.90436262321058614</v>
+        <v>-0.89056223411516644</v>
       </c>
     </row>
     <row r="125">
@@ -2165,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="0">
-        <v>-0.42879133966411409</v>
+        <v>-0.41933499758491921</v>
       </c>
     </row>
     <row r="126">
@@ -2176,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="0">
-        <v>0.11631853045925844</v>
+        <v>0.12215563006285901</v>
       </c>
     </row>
     <row r="127">
@@ -2187,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0.011467014846999746</v>
+        <v>0.012575595825126129</v>
       </c>
     </row>
     <row r="128">
@@ -2198,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0.043484487817080364</v>
+        <v>0.044410665622063306</v>
       </c>
     </row>
     <row r="129">
@@ -2407,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="0">
-        <v>7.1352820388482119</v>
+        <v>0.11290968855326433</v>
       </c>
     </row>
     <row r="148">
@@ -2418,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="0">
-        <v>-7.5740026381281744</v>
+        <v>-11.399859306774584</v>
       </c>
     </row>
     <row r="149">
@@ -2429,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="0">
-        <v>-5.1664767494255859</v>
+        <v>-4.9636593258756356</v>
       </c>
     </row>
     <row r="150">
@@ -2440,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="0">
-        <v>-4.1916978406747134</v>
+        <v>-4.0560136448109407</v>
       </c>
     </row>
     <row r="151">
@@ -2451,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="0">
-        <v>-3.8252569046508089</v>
+        <v>-3.887693620518673</v>
       </c>
     </row>
     <row r="152">
@@ -2462,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="0">
-        <v>-2.4954228601575146</v>
+        <v>-2.6368599388076897</v>
       </c>
     </row>
     <row r="153">
@@ -2473,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="0">
-        <v>-1.3521292502786331</v>
+        <v>-1.4418539797378283</v>
       </c>
     </row>
     <row r="154">
@@ -2484,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="0">
-        <v>-0.33951068032125331</v>
+        <v>-0.47727702503747027</v>
       </c>
     </row>
     <row r="155">

--- a/exhibits/shadowrate.xlsx
+++ b/exhibits/shadowrate.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fedfundsrate</t>
+  </si>
+  <si>
+    <t>fedfundsrate_shadow</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -858,13 +867,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
